--- a/Data_frame/balancos_definitivos/GAZO3.xlsx
+++ b/Data_frame/balancos_definitivos/GAZO3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV80"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,235 +441,210 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30/09/1998</t>
+          <t>31/12/1999</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>31/03/1999</t>
+          <t>30/06/2000</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/09/2000</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>30/09/1999</t>
+          <t>31/12/2000</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>31/12/1999</t>
+          <t>31/03/2001</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2000</t>
+          <t>30/06/2001</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2000</t>
+          <t>30/09/2001</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2000</t>
+          <t>31/12/2001</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2000</t>
+          <t>31/03/2002</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2001</t>
+          <t>30/06/2002</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2001</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2001</t>
+          <t>31/12/2002</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2001</t>
+          <t>31/03/2003</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2002</t>
+          <t>30/06/2003</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2002</t>
+          <t>30/09/2003</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/03/2004</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2003</t>
+          <t>30/06/2004</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2003</t>
+          <t>30/09/2004</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2004</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2004</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2004</t>
+          <t>31/12/2005</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>30/09/2006</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>31/12/2006</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2005</t>
+          <t>31/03/2007</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>30/06/2007</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>30/09/2007</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2006</t>
+          <t>31/12/2007</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2007</t>
+          <t>31/12/2008</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2007</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2007</t>
+          <t>30/06/2009</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2007</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>31/12/2009</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2008</t>
+          <t>31/12/2010</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2009</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2009</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2009</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2011</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2011</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
@@ -682,144 +657,129 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16274</v>
+        <v>39207.012</v>
       </c>
       <c r="C2" t="n">
-        <v>14971</v>
+        <v>41464.604</v>
       </c>
       <c r="D2" t="n">
-        <v>15159</v>
+        <v>42497.44</v>
       </c>
       <c r="E2" t="n">
-        <v>13330</v>
+        <v>42374.632</v>
       </c>
       <c r="F2" t="n">
-        <v>39207.012</v>
+        <v>43129.8</v>
       </c>
       <c r="G2" t="n">
-        <v>12878</v>
+        <v>43905.164</v>
       </c>
       <c r="H2" t="n">
-        <v>41464.604</v>
+        <v>44686.28</v>
       </c>
       <c r="I2" t="n">
-        <v>42497.44</v>
+        <v>46280.816</v>
       </c>
       <c r="J2" t="n">
-        <v>42374.632</v>
+        <v>46635.924</v>
       </c>
       <c r="K2" t="n">
-        <v>43129.8</v>
+        <v>46952.788</v>
       </c>
       <c r="L2" t="n">
-        <v>43905.164</v>
+        <v>47797.188</v>
       </c>
       <c r="M2" t="n">
-        <v>44686.28</v>
+        <v>48563.208</v>
       </c>
       <c r="N2" t="n">
-        <v>46280.816</v>
+        <v>49536.052</v>
       </c>
       <c r="O2" t="n">
-        <v>46635.924</v>
+        <v>49905.576</v>
       </c>
       <c r="P2" t="n">
-        <v>46952.788</v>
+        <v>55470.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47797.188</v>
+        <v>55852.988</v>
       </c>
       <c r="R2" t="n">
-        <v>48563.208</v>
+        <v>57081.056</v>
       </c>
       <c r="S2" t="n">
-        <v>49536.052</v>
+        <v>58604.904</v>
       </c>
       <c r="T2" t="n">
-        <v>49905.576</v>
+        <v>60952.892</v>
       </c>
       <c r="U2" t="n">
-        <v>55470.8</v>
+        <v>63743.94</v>
       </c>
       <c r="V2" t="n">
-        <v>55852.988</v>
+        <v>25161.354</v>
       </c>
       <c r="W2" t="n">
-        <v>57081.056</v>
+        <v>21672.92</v>
       </c>
       <c r="X2" t="n">
-        <v>58604.904</v>
+        <v>22283.728</v>
       </c>
       <c r="Y2" t="n">
-        <v>60952.892</v>
+        <v>21865.384</v>
       </c>
       <c r="Z2" t="n">
-        <v>63743.94</v>
+        <v>20051.78</v>
       </c>
       <c r="AA2" t="n">
-        <v>25161.354</v>
+        <v>19329.414</v>
       </c>
       <c r="AB2" t="n">
-        <v>21672.92</v>
+        <v>20249.908</v>
       </c>
       <c r="AC2" t="n">
-        <v>22283.728</v>
+        <v>21573.964</v>
       </c>
       <c r="AD2" t="n">
-        <v>21865.384</v>
+        <v>22446.23</v>
       </c>
       <c r="AE2" t="n">
-        <v>20051.78</v>
+        <v>20391.146</v>
       </c>
       <c r="AF2" t="n">
-        <v>19329.414</v>
+        <v>21335.094</v>
       </c>
       <c r="AG2" t="n">
-        <v>20249.908</v>
+        <v>23721.268</v>
       </c>
       <c r="AH2" t="n">
-        <v>21573.964</v>
+        <v>27266.214</v>
       </c>
       <c r="AI2" t="n">
-        <v>22446.23</v>
+        <v>18039.756</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20391.146</v>
+        <v>18165.3</v>
       </c>
       <c r="AK2" t="n">
-        <v>21335.094</v>
+        <v>18253.332</v>
       </c>
       <c r="AL2" t="n">
-        <v>23721.268</v>
+        <v>17622.18</v>
       </c>
       <c r="AM2" t="n">
-        <v>27266.214</v>
+        <v>17108.484</v>
       </c>
       <c r="AN2" t="n">
-        <v>18039.756</v>
+        <v>16437.965</v>
       </c>
       <c r="AO2" t="n">
-        <v>18165.3</v>
+        <v>16746.959</v>
       </c>
       <c r="AP2" t="n">
-        <v>18253.332</v>
+        <v>16527.956</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17622.18</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>17108.484</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>16437.965</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>16746.959</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>16527.956</v>
-      </c>
-      <c r="AV2" t="n">
         <v>16472.76</v>
       </c>
     </row>
@@ -830,144 +790,129 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4572</v>
+        <v>6198.691</v>
       </c>
       <c r="C3" t="n">
-        <v>3480</v>
+        <v>6835.682</v>
       </c>
       <c r="D3" t="n">
-        <v>3746</v>
+        <v>6978.069</v>
       </c>
       <c r="E3" t="n">
-        <v>1970</v>
+        <v>6235.43</v>
       </c>
       <c r="F3" t="n">
-        <v>6198.691</v>
+        <v>6349.591</v>
       </c>
       <c r="G3" t="n">
-        <v>1632</v>
+        <v>6075.277</v>
       </c>
       <c r="H3" t="n">
-        <v>6835.682</v>
+        <v>5957.41</v>
       </c>
       <c r="I3" t="n">
-        <v>6978.069</v>
+        <v>6673.006</v>
       </c>
       <c r="J3" t="n">
-        <v>6235.43</v>
+        <v>6295.56</v>
       </c>
       <c r="K3" t="n">
-        <v>6349.591</v>
+        <v>5908.403</v>
       </c>
       <c r="L3" t="n">
-        <v>6075.277</v>
+        <v>6043.368</v>
       </c>
       <c r="M3" t="n">
-        <v>5957.41</v>
+        <v>5884.192</v>
       </c>
       <c r="N3" t="n">
-        <v>6673.006</v>
+        <v>5958.79</v>
       </c>
       <c r="O3" t="n">
-        <v>6295.56</v>
+        <v>5456.574</v>
       </c>
       <c r="P3" t="n">
-        <v>5908.403</v>
+        <v>4792.779</v>
       </c>
       <c r="Q3" t="n">
-        <v>6043.368</v>
+        <v>4657.337</v>
       </c>
       <c r="R3" t="n">
-        <v>5884.192</v>
+        <v>4867.791</v>
       </c>
       <c r="S3" t="n">
-        <v>5958.79</v>
+        <v>5030.847</v>
       </c>
       <c r="T3" t="n">
-        <v>5456.574</v>
+        <v>6139.905</v>
       </c>
       <c r="U3" t="n">
-        <v>4792.779</v>
+        <v>6861.193</v>
       </c>
       <c r="V3" t="n">
-        <v>4657.337</v>
+        <v>8111.066</v>
       </c>
       <c r="W3" t="n">
-        <v>4867.791</v>
+        <v>4936.266</v>
       </c>
       <c r="X3" t="n">
-        <v>5030.847</v>
+        <v>5699.363</v>
       </c>
       <c r="Y3" t="n">
-        <v>6139.905</v>
+        <v>6194.029</v>
       </c>
       <c r="Z3" t="n">
-        <v>6861.193</v>
+        <v>4807.639</v>
       </c>
       <c r="AA3" t="n">
-        <v>8111.066</v>
+        <v>4266.436</v>
       </c>
       <c r="AB3" t="n">
-        <v>4936.266</v>
+        <v>5346.853</v>
       </c>
       <c r="AC3" t="n">
-        <v>5699.363</v>
+        <v>7191.748</v>
       </c>
       <c r="AD3" t="n">
-        <v>6194.029</v>
+        <v>8571.324000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>4807.639</v>
+        <v>6653.094</v>
       </c>
       <c r="AF3" t="n">
-        <v>4266.436</v>
+        <v>7745.054</v>
       </c>
       <c r="AG3" t="n">
-        <v>5346.853</v>
+        <v>10254.902</v>
       </c>
       <c r="AH3" t="n">
-        <v>7191.748</v>
+        <v>13923.008</v>
       </c>
       <c r="AI3" t="n">
-        <v>8571.324000000001</v>
+        <v>5595.324</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6653.094</v>
+        <v>5921.623</v>
       </c>
       <c r="AK3" t="n">
-        <v>7745.054</v>
+        <v>6257.566</v>
       </c>
       <c r="AL3" t="n">
-        <v>10254.902</v>
+        <v>5744.206</v>
       </c>
       <c r="AM3" t="n">
-        <v>13923.008</v>
+        <v>5334.144</v>
       </c>
       <c r="AN3" t="n">
-        <v>5595.324</v>
+        <v>4021.101</v>
       </c>
       <c r="AO3" t="n">
-        <v>5921.623</v>
+        <v>4284.702</v>
       </c>
       <c r="AP3" t="n">
-        <v>6257.566</v>
+        <v>4014.127</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5744.206</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>5334.144</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>4021.101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>4284.702</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>4014.127</v>
-      </c>
-      <c r="AV3" t="n">
         <v>3901.869</v>
       </c>
     </row>
@@ -978,144 +923,129 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>74.63500000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>82.021</v>
       </c>
       <c r="D4" t="n">
-        <v>114</v>
+        <v>20.539</v>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>22.699</v>
       </c>
       <c r="F4" t="n">
-        <v>74.63500000000001</v>
+        <v>11.619</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>17.977</v>
       </c>
       <c r="H4" t="n">
-        <v>82.021</v>
+        <v>8.77</v>
       </c>
       <c r="I4" t="n">
-        <v>20.539</v>
+        <v>50.43</v>
       </c>
       <c r="J4" t="n">
-        <v>22.699</v>
+        <v>8.343</v>
       </c>
       <c r="K4" t="n">
-        <v>11.619</v>
+        <v>4.817</v>
       </c>
       <c r="L4" t="n">
-        <v>17.977</v>
+        <v>21.535</v>
       </c>
       <c r="M4" t="n">
-        <v>8.77</v>
+        <v>53.502</v>
       </c>
       <c r="N4" t="n">
-        <v>50.43</v>
+        <v>24.199</v>
       </c>
       <c r="O4" t="n">
-        <v>8.343</v>
+        <v>14.732</v>
       </c>
       <c r="P4" t="n">
-        <v>4.817</v>
+        <v>7.392</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.535</v>
+        <v>18.401</v>
       </c>
       <c r="R4" t="n">
-        <v>53.502</v>
+        <v>35.724</v>
       </c>
       <c r="S4" t="n">
-        <v>24.199</v>
+        <v>17.181</v>
       </c>
       <c r="T4" t="n">
-        <v>14.732</v>
+        <v>5.851</v>
       </c>
       <c r="U4" t="n">
-        <v>7.392</v>
+        <v>23.054</v>
       </c>
       <c r="V4" t="n">
-        <v>18.401</v>
+        <v>147.263</v>
       </c>
       <c r="W4" t="n">
-        <v>35.724</v>
+        <v>112.445</v>
       </c>
       <c r="X4" t="n">
-        <v>17.181</v>
+        <v>337.588</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.851</v>
+        <v>436.603</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.054</v>
+        <v>272.758</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.263</v>
+        <v>213.526</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.445</v>
+        <v>308.92</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.588</v>
+        <v>76.125</v>
       </c>
       <c r="AD4" t="n">
-        <v>436.603</v>
+        <v>643.044</v>
       </c>
       <c r="AE4" t="n">
-        <v>272.758</v>
+        <v>317.024</v>
       </c>
       <c r="AF4" t="n">
-        <v>213.526</v>
+        <v>115.214</v>
       </c>
       <c r="AG4" t="n">
-        <v>308.92</v>
+        <v>23.721</v>
       </c>
       <c r="AH4" t="n">
-        <v>76.125</v>
+        <v>99.506</v>
       </c>
       <c r="AI4" t="n">
-        <v>643.044</v>
+        <v>7.125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>317.024</v>
+        <v>142.547</v>
       </c>
       <c r="AK4" t="n">
-        <v>115.214</v>
+        <v>253.49</v>
       </c>
       <c r="AL4" t="n">
-        <v>23.721</v>
+        <v>175.935</v>
       </c>
       <c r="AM4" t="n">
-        <v>99.506</v>
+        <v>3.068</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.125</v>
+        <v>0.406</v>
       </c>
       <c r="AO4" t="n">
-        <v>142.547</v>
+        <v>138.562</v>
       </c>
       <c r="AP4" t="n">
-        <v>253.49</v>
+        <v>30.915</v>
       </c>
       <c r="AQ4" t="n">
-        <v>175.935</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>3.068</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>138.562</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>30.915</v>
-      </c>
-      <c r="AV4" t="n">
         <v>0.895</v>
       </c>
     </row>
@@ -1251,21 +1181,6 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1274,144 +1189,129 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3155</v>
+        <v>3666.035</v>
       </c>
       <c r="C6" t="n">
-        <v>2573</v>
+        <v>3509.537</v>
       </c>
       <c r="D6" t="n">
-        <v>2679</v>
+        <v>3217.665</v>
       </c>
       <c r="E6" t="n">
-        <v>1482</v>
+        <v>2987.228</v>
       </c>
       <c r="F6" t="n">
-        <v>3666.035</v>
+        <v>3043.872</v>
       </c>
       <c r="G6" t="n">
-        <v>1461</v>
+        <v>3170.339</v>
       </c>
       <c r="H6" t="n">
-        <v>3509.537</v>
+        <v>2999.784</v>
       </c>
       <c r="I6" t="n">
-        <v>3217.665</v>
+        <v>4119.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2987.228</v>
+        <v>3179.905</v>
       </c>
       <c r="K6" t="n">
-        <v>3043.872</v>
+        <v>2594.13</v>
       </c>
       <c r="L6" t="n">
-        <v>3170.339</v>
+        <v>2987.98</v>
       </c>
       <c r="M6" t="n">
-        <v>2999.784</v>
+        <v>3268.911</v>
       </c>
       <c r="N6" t="n">
-        <v>4119.65</v>
+        <v>2919.94</v>
       </c>
       <c r="O6" t="n">
-        <v>3179.905</v>
+        <v>2951.604</v>
       </c>
       <c r="P6" t="n">
-        <v>2594.13</v>
+        <v>2876.504</v>
       </c>
       <c r="Q6" t="n">
-        <v>2987.98</v>
+        <v>2585.293</v>
       </c>
       <c r="R6" t="n">
-        <v>3268.911</v>
+        <v>3000.965</v>
       </c>
       <c r="S6" t="n">
-        <v>2919.94</v>
+        <v>2921.818</v>
       </c>
       <c r="T6" t="n">
-        <v>2951.604</v>
+        <v>4181.966</v>
       </c>
       <c r="U6" t="n">
-        <v>2876.504</v>
+        <v>3726.796</v>
       </c>
       <c r="V6" t="n">
-        <v>2585.293</v>
+        <v>4180.825</v>
       </c>
       <c r="W6" t="n">
-        <v>3000.965</v>
+        <v>2298.129</v>
       </c>
       <c r="X6" t="n">
-        <v>2921.818</v>
+        <v>3119.707</v>
       </c>
       <c r="Y6" t="n">
-        <v>4181.966</v>
+        <v>3336.879</v>
       </c>
       <c r="Z6" t="n">
-        <v>3726.796</v>
+        <v>2612.515</v>
       </c>
       <c r="AA6" t="n">
-        <v>4180.825</v>
+        <v>2321.705</v>
       </c>
       <c r="AB6" t="n">
-        <v>2298.129</v>
+        <v>2815.083</v>
       </c>
       <c r="AC6" t="n">
-        <v>3119.707</v>
+        <v>4614.397</v>
       </c>
       <c r="AD6" t="n">
-        <v>3336.879</v>
+        <v>5617.398</v>
       </c>
       <c r="AE6" t="n">
-        <v>2612.515</v>
+        <v>4535.736</v>
       </c>
       <c r="AF6" t="n">
-        <v>2321.705</v>
+        <v>5452.842</v>
       </c>
       <c r="AG6" t="n">
-        <v>2815.083</v>
+        <v>9040.412</v>
       </c>
       <c r="AH6" t="n">
-        <v>4614.397</v>
+        <v>9735.948</v>
       </c>
       <c r="AI6" t="n">
-        <v>5617.398</v>
+        <v>3966.318</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4535.736</v>
+        <v>4260.525</v>
       </c>
       <c r="AK6" t="n">
-        <v>5452.842</v>
+        <v>4571.174</v>
       </c>
       <c r="AL6" t="n">
-        <v>9040.412</v>
+        <v>4189.136</v>
       </c>
       <c r="AM6" t="n">
-        <v>9735.948</v>
+        <v>3983.658</v>
       </c>
       <c r="AN6" t="n">
-        <v>3966.318</v>
+        <v>297.973</v>
       </c>
       <c r="AO6" t="n">
-        <v>4260.525</v>
+        <v>381.943</v>
       </c>
       <c r="AP6" t="n">
-        <v>4571.174</v>
+        <v>256.383</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4189.136</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>3983.658</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>297.973</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>381.943</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>256.383</v>
-      </c>
-      <c r="AV6" t="n">
         <v>168.461</v>
       </c>
     </row>
@@ -1422,144 +1322,129 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1178</v>
+        <v>2401.295</v>
       </c>
       <c r="C7" t="n">
-        <v>785</v>
+        <v>3229.654</v>
       </c>
       <c r="D7" t="n">
-        <v>841</v>
+        <v>3717.069</v>
       </c>
       <c r="E7" t="n">
-        <v>217</v>
+        <v>3193.322</v>
       </c>
       <c r="F7" t="n">
-        <v>2401.295</v>
+        <v>3234.104</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>2867.765</v>
       </c>
       <c r="H7" t="n">
-        <v>3229.654</v>
+        <v>2928.787</v>
       </c>
       <c r="I7" t="n">
-        <v>3717.069</v>
+        <v>2461.212</v>
       </c>
       <c r="J7" t="n">
-        <v>3193.322</v>
+        <v>2947.229</v>
       </c>
       <c r="K7" t="n">
-        <v>3234.104</v>
+        <v>3183.498</v>
       </c>
       <c r="L7" t="n">
-        <v>2867.765</v>
+        <v>2917.596</v>
       </c>
       <c r="M7" t="n">
-        <v>2928.787</v>
+        <v>2452.698</v>
       </c>
       <c r="N7" t="n">
-        <v>2461.212</v>
+        <v>2923.636</v>
       </c>
       <c r="O7" t="n">
-        <v>2947.229</v>
+        <v>2443.751</v>
       </c>
       <c r="P7" t="n">
-        <v>3183.498</v>
+        <v>1865.021</v>
       </c>
       <c r="Q7" t="n">
-        <v>2917.596</v>
+        <v>2007.881</v>
       </c>
       <c r="R7" t="n">
-        <v>2452.698</v>
+        <v>1761.81</v>
       </c>
       <c r="S7" t="n">
-        <v>2923.636</v>
+        <v>2037.912</v>
       </c>
       <c r="T7" t="n">
-        <v>2443.751</v>
+        <v>1883.779</v>
       </c>
       <c r="U7" t="n">
-        <v>1865.021</v>
+        <v>2990.835</v>
       </c>
       <c r="V7" t="n">
-        <v>2007.881</v>
+        <v>3694.008</v>
       </c>
       <c r="W7" t="n">
-        <v>1761.81</v>
+        <v>2510.955</v>
       </c>
       <c r="X7" t="n">
-        <v>2037.912</v>
+        <v>2231.234</v>
       </c>
       <c r="Y7" t="n">
-        <v>1883.779</v>
+        <v>2413.621</v>
       </c>
       <c r="Z7" t="n">
-        <v>2990.835</v>
+        <v>1903.244</v>
       </c>
       <c r="AA7" t="n">
-        <v>3694.008</v>
+        <v>1728.252</v>
       </c>
       <c r="AB7" t="n">
-        <v>2510.955</v>
+        <v>2221.415</v>
       </c>
       <c r="AC7" t="n">
-        <v>2231.234</v>
+        <v>2490.763</v>
       </c>
       <c r="AD7" t="n">
-        <v>2413.621</v>
+        <v>2310.882</v>
       </c>
       <c r="AE7" t="n">
-        <v>1903.244</v>
+        <v>1800.334</v>
       </c>
       <c r="AF7" t="n">
-        <v>1728.252</v>
+        <v>2176.998</v>
       </c>
       <c r="AG7" t="n">
-        <v>2221.415</v>
+        <v>1179.92</v>
       </c>
       <c r="AH7" t="n">
-        <v>2490.763</v>
+        <v>2831.788</v>
       </c>
       <c r="AI7" t="n">
-        <v>2310.882</v>
+        <v>1621.881</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1800.334</v>
+        <v>1518.551</v>
       </c>
       <c r="AK7" t="n">
-        <v>2176.998</v>
+        <v>1432.902</v>
       </c>
       <c r="AL7" t="n">
-        <v>1179.92</v>
+        <v>1379.135</v>
       </c>
       <c r="AM7" t="n">
-        <v>2831.788</v>
+        <v>1347.418</v>
       </c>
       <c r="AN7" t="n">
-        <v>1621.881</v>
+        <v>68.98099999999999</v>
       </c>
       <c r="AO7" t="n">
-        <v>1518.551</v>
+        <v>110.456</v>
       </c>
       <c r="AP7" t="n">
-        <v>1432.902</v>
+        <v>73.08799999999999</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1379.135</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1347.418</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>68.98099999999999</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>110.456</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>73.08799999999999</v>
-      </c>
-      <c r="AV7" t="n">
         <v>78.855</v>
       </c>
     </row>
@@ -1695,21 +1580,6 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1832,30 +1702,15 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>3653.741</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>3653.741</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>3653.741</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>3653.741</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3653.741</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3653.741</v>
-      </c>
-      <c r="AV9" t="n">
         <v>3653.658</v>
       </c>
     </row>
@@ -1991,21 +1846,6 @@
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2014,103 +1854,103 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226</v>
+        <v>56.726</v>
       </c>
       <c r="C11" t="n">
-        <v>104</v>
+        <v>14.47</v>
       </c>
       <c r="D11" t="n">
-        <v>112</v>
+        <v>22.796</v>
       </c>
       <c r="E11" t="n">
-        <v>164</v>
+        <v>32.181</v>
       </c>
       <c r="F11" t="n">
-        <v>56.726</v>
+        <v>59.996</v>
       </c>
       <c r="G11" t="n">
-        <v>118</v>
+        <v>19.196</v>
       </c>
       <c r="H11" t="n">
-        <v>14.47</v>
+        <v>20.069</v>
       </c>
       <c r="I11" t="n">
-        <v>22.796</v>
+        <v>41.714</v>
       </c>
       <c r="J11" t="n">
-        <v>32.181</v>
+        <v>160.083</v>
       </c>
       <c r="K11" t="n">
-        <v>59.996</v>
+        <v>125.958</v>
       </c>
       <c r="L11" t="n">
-        <v>19.196</v>
+        <v>116.257</v>
       </c>
       <c r="M11" t="n">
-        <v>20.069</v>
+        <v>109.081</v>
       </c>
       <c r="N11" t="n">
-        <v>41.714</v>
+        <v>91.015</v>
       </c>
       <c r="O11" t="n">
-        <v>160.083</v>
+        <v>46.487</v>
       </c>
       <c r="P11" t="n">
-        <v>125.958</v>
+        <v>43.862</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.257</v>
+        <v>45.762</v>
       </c>
       <c r="R11" t="n">
-        <v>109.081</v>
+        <v>69.292</v>
       </c>
       <c r="S11" t="n">
-        <v>91.015</v>
+        <v>53.936</v>
       </c>
       <c r="T11" t="n">
-        <v>46.487</v>
+        <v>68.309</v>
       </c>
       <c r="U11" t="n">
-        <v>43.862</v>
+        <v>120.508</v>
       </c>
       <c r="V11" t="n">
-        <v>45.762</v>
+        <v>88.97</v>
       </c>
       <c r="W11" t="n">
-        <v>69.292</v>
+        <v>14.737</v>
       </c>
       <c r="X11" t="n">
-        <v>53.936</v>
+        <v>10.834</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.309</v>
+        <v>6.926</v>
       </c>
       <c r="Z11" t="n">
-        <v>120.508</v>
+        <v>19.122</v>
       </c>
       <c r="AA11" t="n">
-        <v>88.97</v>
+        <v>2.953</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.737</v>
+        <v>1.435</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.834</v>
+        <v>10.463</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.926</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.122</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.953</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.435</v>
+        <v>10.849</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.463</v>
+        <v>1255.766</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -2122,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.849</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1255.766</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
@@ -2137,21 +1977,6 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,144 +1987,129 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>22973.098</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>24619.948</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>25351.566</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>26028.76</v>
       </c>
       <c r="F12" t="n">
-        <v>22973.098</v>
+        <v>26711.824</v>
       </c>
       <c r="G12" t="n">
-        <v>47</v>
+        <v>27467.784</v>
       </c>
       <c r="H12" t="n">
-        <v>24619.948</v>
+        <v>28249.202</v>
       </c>
       <c r="I12" t="n">
-        <v>25351.566</v>
+        <v>29034.988</v>
       </c>
       <c r="J12" t="n">
-        <v>26028.76</v>
+        <v>29755.504</v>
       </c>
       <c r="K12" t="n">
-        <v>26711.824</v>
+        <v>30535.496</v>
       </c>
       <c r="L12" t="n">
-        <v>27467.784</v>
+        <v>31352.146</v>
       </c>
       <c r="M12" t="n">
-        <v>28249.202</v>
+        <v>32347.804</v>
       </c>
       <c r="N12" t="n">
-        <v>29034.988</v>
+        <v>33338.06</v>
       </c>
       <c r="O12" t="n">
-        <v>29755.504</v>
+        <v>34274.168</v>
       </c>
       <c r="P12" t="n">
-        <v>30535.496</v>
+        <v>35198.904</v>
       </c>
       <c r="Q12" t="n">
-        <v>31352.146</v>
+        <v>35790.084</v>
       </c>
       <c r="R12" t="n">
-        <v>32347.804</v>
+        <v>36987.672</v>
       </c>
       <c r="S12" t="n">
-        <v>33338.06</v>
+        <v>38467.664</v>
       </c>
       <c r="T12" t="n">
-        <v>34274.168</v>
+        <v>39663.044</v>
       </c>
       <c r="U12" t="n">
-        <v>35198.904</v>
+        <v>41729.696</v>
       </c>
       <c r="V12" t="n">
-        <v>35790.084</v>
+        <v>1973.772</v>
       </c>
       <c r="W12" t="n">
-        <v>36987.672</v>
+        <v>1783.512</v>
       </c>
       <c r="X12" t="n">
-        <v>38467.664</v>
+        <v>1786.782</v>
       </c>
       <c r="Y12" t="n">
-        <v>39663.044</v>
+        <v>1108.091</v>
       </c>
       <c r="Z12" t="n">
-        <v>41729.696</v>
+        <v>845.4450000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>1973.772</v>
+        <v>844.2380000000001</v>
       </c>
       <c r="AB12" t="n">
-        <v>1783.512</v>
+        <v>855.427</v>
       </c>
       <c r="AC12" t="n">
-        <v>1786.782</v>
+        <v>689.535</v>
       </c>
       <c r="AD12" t="n">
-        <v>1108.091</v>
+        <v>350.684</v>
       </c>
       <c r="AE12" t="n">
-        <v>845.4450000000001</v>
+        <v>373.149</v>
       </c>
       <c r="AF12" t="n">
-        <v>844.2380000000001</v>
+        <v>377.794</v>
       </c>
       <c r="AG12" t="n">
-        <v>855.427</v>
+        <v>432.693</v>
       </c>
       <c r="AH12" t="n">
-        <v>689.535</v>
+        <v>461.639</v>
       </c>
       <c r="AI12" t="n">
-        <v>350.684</v>
+        <v>342.432</v>
       </c>
       <c r="AJ12" t="n">
-        <v>373.149</v>
+        <v>347.432</v>
       </c>
       <c r="AK12" t="n">
-        <v>377.794</v>
+        <v>363.001</v>
       </c>
       <c r="AL12" t="n">
-        <v>432.693</v>
+        <v>395.758</v>
       </c>
       <c r="AM12" t="n">
-        <v>461.639</v>
+        <v>412.061</v>
       </c>
       <c r="AN12" t="n">
-        <v>342.432</v>
+        <v>1705.121</v>
       </c>
       <c r="AO12" t="n">
-        <v>347.432</v>
+        <v>1750.126</v>
       </c>
       <c r="AP12" t="n">
-        <v>363.001</v>
+        <v>1801.218</v>
       </c>
       <c r="AQ12" t="n">
-        <v>395.758</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>412.061</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1705.121</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1750.126</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>1801.218</v>
-      </c>
-      <c r="AV12" t="n">
         <v>1858.28</v>
       </c>
     </row>
@@ -2435,21 +2245,6 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2583,21 +2378,6 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2731,21 +2511,6 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2879,21 +2644,6 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3027,21 +2777,6 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3175,21 +2910,6 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3323,21 +3043,6 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3346,94 +3051,94 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>92.244</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>100.793</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>105.103</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>109.2</v>
       </c>
       <c r="F20" t="n">
-        <v>92.244</v>
+        <v>112.051</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>112.195</v>
       </c>
       <c r="H20" t="n">
-        <v>100.793</v>
+        <v>112.341</v>
       </c>
       <c r="I20" t="n">
-        <v>105.103</v>
+        <v>112.487</v>
       </c>
       <c r="J20" t="n">
-        <v>109.2</v>
+        <v>112.629</v>
       </c>
       <c r="K20" t="n">
-        <v>112.051</v>
+        <v>112.773</v>
       </c>
       <c r="L20" t="n">
-        <v>112.195</v>
+        <v>112.919</v>
       </c>
       <c r="M20" t="n">
-        <v>112.341</v>
+        <v>113.064</v>
       </c>
       <c r="N20" t="n">
-        <v>112.487</v>
+        <v>113.207</v>
       </c>
       <c r="O20" t="n">
-        <v>112.629</v>
+        <v>113.351</v>
       </c>
       <c r="P20" t="n">
-        <v>112.773</v>
+        <v>113.496</v>
       </c>
       <c r="Q20" t="n">
-        <v>112.919</v>
+        <v>113.642</v>
       </c>
       <c r="R20" t="n">
-        <v>113.064</v>
+        <v>113.783</v>
       </c>
       <c r="S20" t="n">
-        <v>113.207</v>
+        <v>113.928</v>
       </c>
       <c r="T20" t="n">
-        <v>113.351</v>
+        <v>114.074</v>
       </c>
       <c r="U20" t="n">
-        <v>113.496</v>
+        <v>114.22</v>
       </c>
       <c r="V20" t="n">
-        <v>113.642</v>
+        <v>114.362</v>
       </c>
       <c r="W20" t="n">
-        <v>113.783</v>
+        <v>114.506</v>
       </c>
       <c r="X20" t="n">
-        <v>113.928</v>
+        <v>114.652</v>
       </c>
       <c r="Y20" t="n">
-        <v>114.074</v>
+        <v>114.797</v>
       </c>
       <c r="Z20" t="n">
-        <v>114.22</v>
+        <v>114.94</v>
       </c>
       <c r="AA20" t="n">
-        <v>114.362</v>
+        <v>115.084</v>
       </c>
       <c r="AB20" t="n">
-        <v>114.506</v>
+        <v>115.084</v>
       </c>
       <c r="AC20" t="n">
-        <v>114.652</v>
+        <v>115.084</v>
       </c>
       <c r="AD20" t="n">
-        <v>114.797</v>
+        <v>115.084</v>
       </c>
       <c r="AE20" t="n">
-        <v>114.94</v>
+        <v>115.084</v>
       </c>
       <c r="AF20" t="n">
         <v>115.084</v>
@@ -3460,30 +3165,15 @@
         <v>115.084</v>
       </c>
       <c r="AN20" t="n">
-        <v>115.084</v>
+        <v>1407.189</v>
       </c>
       <c r="AO20" t="n">
-        <v>115.084</v>
+        <v>1452.194</v>
       </c>
       <c r="AP20" t="n">
-        <v>115.084</v>
+        <v>1503.286</v>
       </c>
       <c r="AQ20" t="n">
-        <v>115.084</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>115.084</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1407.189</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1452.194</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1503.286</v>
-      </c>
-      <c r="AV20" t="n">
         <v>1560.348</v>
       </c>
     </row>
@@ -3494,144 +3184,129 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>22880.854</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>24519.156</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>25246.464</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>25919.56</v>
       </c>
       <c r="F21" t="n">
-        <v>22880.854</v>
+        <v>26599.772</v>
       </c>
       <c r="G21" t="n">
-        <v>47</v>
+        <v>27355.588</v>
       </c>
       <c r="H21" t="n">
-        <v>24519.156</v>
+        <v>28136.86</v>
       </c>
       <c r="I21" t="n">
-        <v>25246.464</v>
+        <v>28922.5</v>
       </c>
       <c r="J21" t="n">
-        <v>25919.56</v>
+        <v>29642.876</v>
       </c>
       <c r="K21" t="n">
-        <v>26599.772</v>
+        <v>30422.724</v>
       </c>
       <c r="L21" t="n">
-        <v>27355.588</v>
+        <v>31239.228</v>
       </c>
       <c r="M21" t="n">
-        <v>28136.86</v>
+        <v>32234.74</v>
       </c>
       <c r="N21" t="n">
-        <v>28922.5</v>
+        <v>33224.852</v>
       </c>
       <c r="O21" t="n">
-        <v>29642.876</v>
+        <v>34160.82</v>
       </c>
       <c r="P21" t="n">
-        <v>30422.724</v>
+        <v>35085.408</v>
       </c>
       <c r="Q21" t="n">
-        <v>31239.228</v>
+        <v>35676.44</v>
       </c>
       <c r="R21" t="n">
-        <v>32234.74</v>
+        <v>36873.888</v>
       </c>
       <c r="S21" t="n">
-        <v>33224.852</v>
+        <v>38353.736</v>
       </c>
       <c r="T21" t="n">
-        <v>34160.82</v>
+        <v>39548.968</v>
       </c>
       <c r="U21" t="n">
-        <v>35085.408</v>
+        <v>41615.472</v>
       </c>
       <c r="V21" t="n">
-        <v>35676.44</v>
+        <v>1859.41</v>
       </c>
       <c r="W21" t="n">
-        <v>36873.888</v>
+        <v>1669.006</v>
       </c>
       <c r="X21" t="n">
-        <v>38353.736</v>
+        <v>1672.13</v>
       </c>
       <c r="Y21" t="n">
-        <v>39548.968</v>
+        <v>993.294</v>
       </c>
       <c r="Z21" t="n">
-        <v>41615.472</v>
+        <v>730.505</v>
       </c>
       <c r="AA21" t="n">
-        <v>1859.41</v>
+        <v>729.154</v>
       </c>
       <c r="AB21" t="n">
-        <v>1669.006</v>
+        <v>740.343</v>
       </c>
       <c r="AC21" t="n">
-        <v>1672.13</v>
+        <v>574.451</v>
       </c>
       <c r="AD21" t="n">
-        <v>993.294</v>
+        <v>235.6</v>
       </c>
       <c r="AE21" t="n">
-        <v>730.505</v>
+        <v>258.065</v>
       </c>
       <c r="AF21" t="n">
-        <v>729.154</v>
+        <v>262.71</v>
       </c>
       <c r="AG21" t="n">
-        <v>740.343</v>
+        <v>317.609</v>
       </c>
       <c r="AH21" t="n">
-        <v>574.451</v>
+        <v>346.555</v>
       </c>
       <c r="AI21" t="n">
-        <v>235.6</v>
+        <v>227.348</v>
       </c>
       <c r="AJ21" t="n">
-        <v>258.065</v>
+        <v>232.348</v>
       </c>
       <c r="AK21" t="n">
-        <v>262.71</v>
+        <v>247.917</v>
       </c>
       <c r="AL21" t="n">
-        <v>317.609</v>
+        <v>280.674</v>
       </c>
       <c r="AM21" t="n">
-        <v>346.555</v>
+        <v>296.977</v>
       </c>
       <c r="AN21" t="n">
-        <v>227.348</v>
+        <v>297.932</v>
       </c>
       <c r="AO21" t="n">
-        <v>232.348</v>
+        <v>297.932</v>
       </c>
       <c r="AP21" t="n">
-        <v>247.917</v>
+        <v>297.932</v>
       </c>
       <c r="AQ21" t="n">
-        <v>280.674</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>296.977</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>297.932</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>297.932</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>297.932</v>
-      </c>
-      <c r="AV21" t="n">
         <v>297.932</v>
       </c>
     </row>
@@ -3642,22 +3317,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135</v>
+        <v>110.96</v>
       </c>
       <c r="C22" t="n">
-        <v>94</v>
+        <v>110.96</v>
       </c>
       <c r="D22" t="n">
-        <v>94</v>
+        <v>110.96</v>
       </c>
       <c r="E22" t="n">
-        <v>94</v>
+        <v>110.96</v>
       </c>
       <c r="F22" t="n">
         <v>110.96</v>
       </c>
       <c r="G22" t="n">
-        <v>94</v>
+        <v>110.96</v>
       </c>
       <c r="H22" t="n">
         <v>110.96</v>
@@ -3711,31 +3386,31 @@
         <v>110.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.96</v>
+        <v>32.976</v>
       </c>
       <c r="Z22" t="n">
-        <v>110.96</v>
+        <v>32.975</v>
       </c>
       <c r="AA22" t="n">
-        <v>110.96</v>
+        <v>32.975</v>
       </c>
       <c r="AB22" t="n">
-        <v>110.96</v>
+        <v>32.975</v>
       </c>
       <c r="AC22" t="n">
-        <v>110.96</v>
+        <v>29.337</v>
       </c>
       <c r="AD22" t="n">
-        <v>32.976</v>
+        <v>29.337</v>
       </c>
       <c r="AE22" t="n">
-        <v>32.975</v>
+        <v>29.338</v>
       </c>
       <c r="AF22" t="n">
-        <v>32.975</v>
+        <v>29.338</v>
       </c>
       <c r="AG22" t="n">
-        <v>32.975</v>
+        <v>29.337</v>
       </c>
       <c r="AH22" t="n">
         <v>29.337</v>
@@ -3744,10 +3419,10 @@
         <v>29.337</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29.338</v>
+        <v>29.337</v>
       </c>
       <c r="AK22" t="n">
-        <v>29.338</v>
+        <v>29.337</v>
       </c>
       <c r="AL22" t="n">
         <v>29.337</v>
@@ -3765,21 +3440,6 @@
         <v>29.337</v>
       </c>
       <c r="AQ22" t="n">
-        <v>29.337</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>29.337</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>29.337</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>29.337</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>29.337</v>
-      </c>
-      <c r="AV22" t="n">
         <v>29.337</v>
       </c>
     </row>
@@ -3790,144 +3450,129 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11554</v>
+        <v>9896.062</v>
       </c>
       <c r="C23" t="n">
-        <v>11384</v>
+        <v>9868.013999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>11306</v>
+        <v>10026.843</v>
       </c>
       <c r="E23" t="n">
-        <v>11253</v>
+        <v>9969.482</v>
       </c>
       <c r="F23" t="n">
-        <v>9896.062</v>
+        <v>9927.428</v>
       </c>
       <c r="G23" t="n">
-        <v>11105</v>
+        <v>10221.144</v>
       </c>
       <c r="H23" t="n">
-        <v>9868.013999999999</v>
+        <v>10338.706</v>
       </c>
       <c r="I23" t="n">
-        <v>10026.843</v>
+        <v>10431.862</v>
       </c>
       <c r="J23" t="n">
-        <v>9969.482</v>
+        <v>10443.9</v>
       </c>
       <c r="K23" t="n">
-        <v>9927.428</v>
+        <v>10367.93</v>
       </c>
       <c r="L23" t="n">
-        <v>10221.144</v>
+        <v>10260.713</v>
       </c>
       <c r="M23" t="n">
-        <v>10338.706</v>
+        <v>10190.251</v>
       </c>
       <c r="N23" t="n">
-        <v>10431.862</v>
+        <v>10098.243</v>
       </c>
       <c r="O23" t="n">
-        <v>10443.9</v>
+        <v>10033.874</v>
       </c>
       <c r="P23" t="n">
-        <v>10367.93</v>
+        <v>15338.155</v>
       </c>
       <c r="Q23" t="n">
-        <v>10260.713</v>
+        <v>15213.278</v>
       </c>
       <c r="R23" t="n">
-        <v>10190.251</v>
+        <v>15033.301</v>
       </c>
       <c r="S23" t="n">
-        <v>10098.243</v>
+        <v>14901.481</v>
       </c>
       <c r="T23" t="n">
-        <v>10033.874</v>
+        <v>14920.416</v>
       </c>
       <c r="U23" t="n">
-        <v>15338.155</v>
+        <v>14908.871</v>
       </c>
       <c r="V23" t="n">
-        <v>15213.278</v>
+        <v>14808.804</v>
       </c>
       <c r="W23" t="n">
-        <v>15033.301</v>
+        <v>14671.431</v>
       </c>
       <c r="X23" t="n">
-        <v>14901.481</v>
+        <v>14515.872</v>
       </c>
       <c r="Y23" t="n">
-        <v>14920.416</v>
+        <v>14359.535</v>
       </c>
       <c r="Z23" t="n">
-        <v>14908.871</v>
+        <v>14194.97</v>
       </c>
       <c r="AA23" t="n">
-        <v>14808.804</v>
+        <v>14015.013</v>
       </c>
       <c r="AB23" t="n">
-        <v>14671.431</v>
+        <v>13843.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>14515.872</v>
+        <v>13663.345</v>
       </c>
       <c r="AD23" t="n">
-        <v>14359.535</v>
+        <v>13494.885</v>
       </c>
       <c r="AE23" t="n">
-        <v>14194.97</v>
+        <v>13335.565</v>
       </c>
       <c r="AF23" t="n">
-        <v>14015.013</v>
+        <v>13182.908</v>
       </c>
       <c r="AG23" t="n">
-        <v>13843.9</v>
+        <v>13004.337</v>
       </c>
       <c r="AH23" t="n">
-        <v>13663.345</v>
+        <v>12852.23</v>
       </c>
       <c r="AI23" t="n">
-        <v>13494.885</v>
+        <v>12072.664</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13335.565</v>
+        <v>11866.909</v>
       </c>
       <c r="AK23" t="n">
-        <v>13182.908</v>
+        <v>11603.429</v>
       </c>
       <c r="AL23" t="n">
-        <v>13004.337</v>
+        <v>11452.878</v>
       </c>
       <c r="AM23" t="n">
-        <v>12852.23</v>
+        <v>11332.941</v>
       </c>
       <c r="AN23" t="n">
-        <v>12072.664</v>
+        <v>10682.406</v>
       </c>
       <c r="AO23" t="n">
-        <v>11866.909</v>
+        <v>10682.794</v>
       </c>
       <c r="AP23" t="n">
-        <v>11603.429</v>
+        <v>10683.274</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11452.878</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>11332.941</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>10682.406</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>10682.794</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>10683.274</v>
-      </c>
-      <c r="AV23" t="n">
         <v>10683.274</v>
       </c>
     </row>
@@ -4063,21 +3708,6 @@
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4086,22 +3716,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>28.2</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>28.2</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H25" t="n">
         <v>30</v>
@@ -4131,55 +3761,55 @@
         <v>30</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>81.32899999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>30</v>
+        <v>81.32899999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>30</v>
+        <v>93.952</v>
       </c>
       <c r="T25" t="n">
-        <v>30</v>
+        <v>118.568</v>
       </c>
       <c r="U25" t="n">
-        <v>30</v>
+        <v>133.221</v>
       </c>
       <c r="V25" t="n">
-        <v>81.32899999999999</v>
+        <v>156.752</v>
       </c>
       <c r="W25" t="n">
-        <v>81.32899999999999</v>
+        <v>170.752</v>
       </c>
       <c r="X25" t="n">
-        <v>93.952</v>
+        <v>170.752</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.568</v>
+        <v>170.752</v>
       </c>
       <c r="Z25" t="n">
-        <v>133.221</v>
+        <v>170.752</v>
       </c>
       <c r="AA25" t="n">
-        <v>156.752</v>
+        <v>170.752</v>
       </c>
       <c r="AB25" t="n">
         <v>170.752</v>
       </c>
       <c r="AC25" t="n">
-        <v>170.752</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>170.752</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>170.752</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>170.752</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>170.752</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -4209,21 +3839,6 @@
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4234,144 +3849,129 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16274</v>
+        <v>39207.012</v>
       </c>
       <c r="C26" t="n">
-        <v>14971</v>
+        <v>41464.604</v>
       </c>
       <c r="D26" t="n">
-        <v>15159</v>
+        <v>42497.44</v>
       </c>
       <c r="E26" t="n">
-        <v>13330</v>
+        <v>42374.632</v>
       </c>
       <c r="F26" t="n">
-        <v>39207.012</v>
+        <v>43129.8</v>
       </c>
       <c r="G26" t="n">
-        <v>12878</v>
+        <v>43905.164</v>
       </c>
       <c r="H26" t="n">
-        <v>41464.604</v>
+        <v>44686.28</v>
       </c>
       <c r="I26" t="n">
-        <v>42497.44</v>
+        <v>46280.816</v>
       </c>
       <c r="J26" t="n">
-        <v>42374.632</v>
+        <v>46635.924</v>
       </c>
       <c r="K26" t="n">
-        <v>43129.8</v>
+        <v>46952.788</v>
       </c>
       <c r="L26" t="n">
-        <v>43905.164</v>
+        <v>47797.188</v>
       </c>
       <c r="M26" t="n">
-        <v>44686.28</v>
+        <v>48563.208</v>
       </c>
       <c r="N26" t="n">
-        <v>46280.816</v>
+        <v>49536.052</v>
       </c>
       <c r="O26" t="n">
-        <v>46635.924</v>
+        <v>49905.576</v>
       </c>
       <c r="P26" t="n">
-        <v>46952.788</v>
+        <v>55470.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>47797.188</v>
+        <v>55852.988</v>
       </c>
       <c r="R26" t="n">
-        <v>48563.208</v>
+        <v>57081.056</v>
       </c>
       <c r="S26" t="n">
-        <v>49536.052</v>
+        <v>58604.904</v>
       </c>
       <c r="T26" t="n">
-        <v>49905.576</v>
+        <v>60952.892</v>
       </c>
       <c r="U26" t="n">
-        <v>55470.8</v>
+        <v>63743.94</v>
       </c>
       <c r="V26" t="n">
-        <v>55852.988</v>
+        <v>25161.354</v>
       </c>
       <c r="W26" t="n">
-        <v>57081.056</v>
+        <v>21672.92</v>
       </c>
       <c r="X26" t="n">
-        <v>58604.904</v>
+        <v>22283.728</v>
       </c>
       <c r="Y26" t="n">
-        <v>60952.892</v>
+        <v>21865.384</v>
       </c>
       <c r="Z26" t="n">
-        <v>63743.94</v>
+        <v>20051.78</v>
       </c>
       <c r="AA26" t="n">
-        <v>25161.354</v>
+        <v>19329.414</v>
       </c>
       <c r="AB26" t="n">
-        <v>21672.92</v>
+        <v>20249.908</v>
       </c>
       <c r="AC26" t="n">
-        <v>22283.728</v>
+        <v>21573.964</v>
       </c>
       <c r="AD26" t="n">
-        <v>21865.384</v>
+        <v>22446.23</v>
       </c>
       <c r="AE26" t="n">
-        <v>20051.78</v>
+        <v>20391.146</v>
       </c>
       <c r="AF26" t="n">
-        <v>19329.414</v>
+        <v>21335.094</v>
       </c>
       <c r="AG26" t="n">
-        <v>20249.908</v>
+        <v>23721.268</v>
       </c>
       <c r="AH26" t="n">
-        <v>21573.964</v>
+        <v>27266.214</v>
       </c>
       <c r="AI26" t="n">
-        <v>22446.23</v>
+        <v>18039.756</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20391.146</v>
+        <v>18165.3</v>
       </c>
       <c r="AK26" t="n">
-        <v>21335.094</v>
+        <v>18253.332</v>
       </c>
       <c r="AL26" t="n">
-        <v>23721.268</v>
+        <v>17622.18</v>
       </c>
       <c r="AM26" t="n">
-        <v>27266.214</v>
+        <v>17108.484</v>
       </c>
       <c r="AN26" t="n">
-        <v>18039.756</v>
+        <v>16437.965</v>
       </c>
       <c r="AO26" t="n">
-        <v>18165.3</v>
+        <v>16746.959</v>
       </c>
       <c r="AP26" t="n">
-        <v>18253.332</v>
+        <v>16527.956</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17622.18</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>17108.484</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>16437.965</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>16746.959</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>16527.956</v>
-      </c>
-      <c r="AV26" t="n">
         <v>16472.76</v>
       </c>
     </row>
@@ -4382,144 +3982,129 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15839</v>
+        <v>10537.462</v>
       </c>
       <c r="C27" t="n">
-        <v>17910</v>
+        <v>3005.984</v>
       </c>
       <c r="D27" t="n">
-        <v>19163</v>
+        <v>3536.457</v>
       </c>
       <c r="E27" t="n">
-        <v>19301</v>
+        <v>3241.274</v>
       </c>
       <c r="F27" t="n">
-        <v>10537.462</v>
+        <v>3749.178</v>
       </c>
       <c r="G27" t="n">
-        <v>23719</v>
+        <v>4249.938</v>
       </c>
       <c r="H27" t="n">
-        <v>3005.984</v>
+        <v>4490.401</v>
       </c>
       <c r="I27" t="n">
-        <v>3536.457</v>
+        <v>5378.421</v>
       </c>
       <c r="J27" t="n">
-        <v>3241.274</v>
+        <v>5612.182</v>
       </c>
       <c r="K27" t="n">
-        <v>3749.178</v>
+        <v>5529.502</v>
       </c>
       <c r="L27" t="n">
-        <v>4249.938</v>
+        <v>5920.029</v>
       </c>
       <c r="M27" t="n">
-        <v>4490.401</v>
+        <v>5921.907</v>
       </c>
       <c r="N27" t="n">
-        <v>5378.421</v>
+        <v>6834.349</v>
       </c>
       <c r="O27" t="n">
-        <v>5612.182</v>
+        <v>6964.584</v>
       </c>
       <c r="P27" t="n">
-        <v>5529.502</v>
+        <v>7466.275</v>
       </c>
       <c r="Q27" t="n">
-        <v>5920.029</v>
+        <v>7837.332</v>
       </c>
       <c r="R27" t="n">
-        <v>5921.907</v>
+        <v>8898.312</v>
       </c>
       <c r="S27" t="n">
-        <v>6834.349</v>
+        <v>10314.183</v>
       </c>
       <c r="T27" t="n">
-        <v>6964.584</v>
+        <v>12881.964</v>
       </c>
       <c r="U27" t="n">
-        <v>7466.275</v>
+        <v>11229.341</v>
       </c>
       <c r="V27" t="n">
-        <v>7837.332</v>
+        <v>13885.391</v>
       </c>
       <c r="W27" t="n">
-        <v>8898.312</v>
+        <v>13078.269</v>
       </c>
       <c r="X27" t="n">
-        <v>10314.183</v>
+        <v>15454.088</v>
       </c>
       <c r="Y27" t="n">
-        <v>12881.964</v>
+        <v>17756.228</v>
       </c>
       <c r="Z27" t="n">
-        <v>11229.341</v>
+        <v>17023.976</v>
       </c>
       <c r="AA27" t="n">
-        <v>13885.391</v>
+        <v>17746.156</v>
       </c>
       <c r="AB27" t="n">
-        <v>13078.269</v>
+        <v>20947.256</v>
       </c>
       <c r="AC27" t="n">
-        <v>15454.088</v>
+        <v>21991.564</v>
       </c>
       <c r="AD27" t="n">
-        <v>17756.228</v>
+        <v>25168.716</v>
       </c>
       <c r="AE27" t="n">
-        <v>17023.976</v>
+        <v>24753.688</v>
       </c>
       <c r="AF27" t="n">
-        <v>17746.156</v>
+        <v>28650.736</v>
       </c>
       <c r="AG27" t="n">
-        <v>20947.256</v>
+        <v>32166.802</v>
       </c>
       <c r="AH27" t="n">
-        <v>21991.564</v>
+        <v>34909.664</v>
       </c>
       <c r="AI27" t="n">
-        <v>25168.716</v>
+        <v>49473.432</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24753.688</v>
+        <v>51410.624</v>
       </c>
       <c r="AK27" t="n">
-        <v>28650.736</v>
+        <v>51765.852</v>
       </c>
       <c r="AL27" t="n">
-        <v>32166.802</v>
+        <v>52204.096</v>
       </c>
       <c r="AM27" t="n">
-        <v>34909.664</v>
+        <v>50985.472</v>
       </c>
       <c r="AN27" t="n">
-        <v>49473.432</v>
+        <v>10772.364</v>
       </c>
       <c r="AO27" t="n">
-        <v>51410.624</v>
+        <v>11222.339</v>
       </c>
       <c r="AP27" t="n">
-        <v>51765.852</v>
+        <v>11122.311</v>
       </c>
       <c r="AQ27" t="n">
-        <v>52204.096</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>50985.472</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>10772.364</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>11222.339</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>11122.311</v>
-      </c>
-      <c r="AV27" t="n">
         <v>11254.202</v>
       </c>
     </row>
@@ -4644,30 +4229,15 @@
         <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>7005.236</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>7129.667</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>7260.354</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>7005.236</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>7129.667</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7260.354</v>
-      </c>
-      <c r="AV28" t="n">
         <v>7396.141</v>
       </c>
     </row>
@@ -4678,144 +4248,129 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1980</v>
+        <v>1313.273</v>
       </c>
       <c r="C29" t="n">
-        <v>2083</v>
+        <v>1850.933</v>
       </c>
       <c r="D29" t="n">
-        <v>2135</v>
+        <v>1675.556</v>
       </c>
       <c r="E29" t="n">
-        <v>2225</v>
+        <v>1464.307</v>
       </c>
       <c r="F29" t="n">
-        <v>1313.273</v>
+        <v>1739.208</v>
       </c>
       <c r="G29" t="n">
-        <v>1573</v>
+        <v>1751.655</v>
       </c>
       <c r="H29" t="n">
-        <v>1850.933</v>
+        <v>1689.572</v>
       </c>
       <c r="I29" t="n">
-        <v>1675.556</v>
+        <v>2113.876</v>
       </c>
       <c r="J29" t="n">
-        <v>1464.307</v>
+        <v>2410.571</v>
       </c>
       <c r="K29" t="n">
-        <v>1739.208</v>
+        <v>2256.612</v>
       </c>
       <c r="L29" t="n">
-        <v>1751.655</v>
+        <v>2037.594</v>
       </c>
       <c r="M29" t="n">
-        <v>1689.572</v>
+        <v>2339.717</v>
       </c>
       <c r="N29" t="n">
-        <v>2113.876</v>
+        <v>2819.223</v>
       </c>
       <c r="O29" t="n">
-        <v>2410.571</v>
+        <v>2542.784</v>
       </c>
       <c r="P29" t="n">
-        <v>2256.612</v>
+        <v>1964.161</v>
       </c>
       <c r="Q29" t="n">
-        <v>2037.594</v>
+        <v>1836.231</v>
       </c>
       <c r="R29" t="n">
-        <v>2339.717</v>
+        <v>1588.036</v>
       </c>
       <c r="S29" t="n">
-        <v>2819.223</v>
+        <v>1885.47</v>
       </c>
       <c r="T29" t="n">
-        <v>2542.784</v>
+        <v>2303.481</v>
       </c>
       <c r="U29" t="n">
-        <v>1964.161</v>
+        <v>4277.858</v>
       </c>
       <c r="V29" t="n">
-        <v>1836.231</v>
+        <v>4491.138</v>
       </c>
       <c r="W29" t="n">
-        <v>1588.036</v>
+        <v>4556.934</v>
       </c>
       <c r="X29" t="n">
-        <v>1885.47</v>
+        <v>4881.782</v>
       </c>
       <c r="Y29" t="n">
-        <v>2303.481</v>
+        <v>5559.29</v>
       </c>
       <c r="Z29" t="n">
-        <v>4277.858</v>
+        <v>5071.234</v>
       </c>
       <c r="AA29" t="n">
-        <v>4491.138</v>
+        <v>4381.063</v>
       </c>
       <c r="AB29" t="n">
-        <v>4556.934</v>
+        <v>4654.73</v>
       </c>
       <c r="AC29" t="n">
-        <v>4881.782</v>
+        <v>5032.43</v>
       </c>
       <c r="AD29" t="n">
-        <v>5559.29</v>
+        <v>3108.991</v>
       </c>
       <c r="AE29" t="n">
-        <v>5071.234</v>
+        <v>2809.265</v>
       </c>
       <c r="AF29" t="n">
-        <v>4381.063</v>
+        <v>3246.906</v>
       </c>
       <c r="AG29" t="n">
-        <v>4654.73</v>
+        <v>3862.486</v>
       </c>
       <c r="AH29" t="n">
-        <v>5032.43</v>
+        <v>3049.02</v>
       </c>
       <c r="AI29" t="n">
-        <v>3108.991</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2809.265</v>
+        <v>1197.05</v>
       </c>
       <c r="AK29" t="n">
-        <v>3246.906</v>
+        <v>1138.187</v>
       </c>
       <c r="AL29" t="n">
-        <v>3862.486</v>
+        <v>1147.437</v>
       </c>
       <c r="AM29" t="n">
-        <v>3049.02</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>700.448</v>
       </c>
       <c r="AO29" t="n">
-        <v>1197.05</v>
+        <v>763.9</v>
       </c>
       <c r="AP29" t="n">
-        <v>1138.187</v>
+        <v>748.289</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1147.437</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>700.448</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>763.9</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>748.289</v>
-      </c>
-      <c r="AV29" t="n">
         <v>795.986</v>
       </c>
     </row>
@@ -4826,144 +4381,129 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10165</v>
+        <v>8314.718999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>12537</v>
+        <v>376.367</v>
       </c>
       <c r="D30" t="n">
-        <v>13717</v>
+        <v>526.976</v>
       </c>
       <c r="E30" t="n">
-        <v>14905</v>
+        <v>547.482</v>
       </c>
       <c r="F30" t="n">
-        <v>8314.718999999999</v>
+        <v>579.318</v>
       </c>
       <c r="G30" t="n">
-        <v>20443</v>
+        <v>629.3579999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>376.367</v>
+        <v>708.389</v>
       </c>
       <c r="I30" t="n">
-        <v>526.976</v>
+        <v>973.353</v>
       </c>
       <c r="J30" t="n">
-        <v>547.482</v>
+        <v>1116.748</v>
       </c>
       <c r="K30" t="n">
-        <v>579.318</v>
+        <v>1254.087</v>
       </c>
       <c r="L30" t="n">
-        <v>629.3579999999999</v>
+        <v>1468.687</v>
       </c>
       <c r="M30" t="n">
-        <v>708.389</v>
+        <v>1369.102</v>
       </c>
       <c r="N30" t="n">
-        <v>973.353</v>
+        <v>1607.536</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.748</v>
+        <v>1468.587</v>
       </c>
       <c r="P30" t="n">
-        <v>1254.087</v>
+        <v>1908.049</v>
       </c>
       <c r="Q30" t="n">
-        <v>1468.687</v>
+        <v>2488.888</v>
       </c>
       <c r="R30" t="n">
-        <v>1369.102</v>
+        <v>3674.024</v>
       </c>
       <c r="S30" t="n">
-        <v>1607.536</v>
+        <v>4698.382</v>
       </c>
       <c r="T30" t="n">
-        <v>1468.587</v>
+        <v>5743.976</v>
       </c>
       <c r="U30" t="n">
-        <v>1908.049</v>
+        <v>1643.465</v>
       </c>
       <c r="V30" t="n">
-        <v>2488.888</v>
+        <v>2525.394</v>
       </c>
       <c r="W30" t="n">
-        <v>3674.024</v>
+        <v>3701.654</v>
       </c>
       <c r="X30" t="n">
-        <v>4698.382</v>
+        <v>4737.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5743.976</v>
+        <v>5618.028</v>
       </c>
       <c r="Z30" t="n">
-        <v>1643.465</v>
+        <v>6507.114</v>
       </c>
       <c r="AA30" t="n">
-        <v>2525.394</v>
+        <v>7344.45</v>
       </c>
       <c r="AB30" t="n">
-        <v>3701.654</v>
+        <v>10357.328</v>
       </c>
       <c r="AC30" t="n">
-        <v>4737.8</v>
+        <v>11631.143</v>
       </c>
       <c r="AD30" t="n">
-        <v>5618.028</v>
+        <v>13088.425</v>
       </c>
       <c r="AE30" t="n">
-        <v>6507.114</v>
+        <v>14313.882</v>
       </c>
       <c r="AF30" t="n">
-        <v>7344.45</v>
+        <v>17151.9</v>
       </c>
       <c r="AG30" t="n">
-        <v>10357.328</v>
+        <v>20565.924</v>
       </c>
       <c r="AH30" t="n">
-        <v>11631.143</v>
+        <v>21168.828</v>
       </c>
       <c r="AI30" t="n">
-        <v>13088.425</v>
+        <v>40156.876</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14313.882</v>
+        <v>41500.952</v>
       </c>
       <c r="AK30" t="n">
-        <v>17151.9</v>
+        <v>41754.78</v>
       </c>
       <c r="AL30" t="n">
-        <v>20565.924</v>
+        <v>42746.388</v>
       </c>
       <c r="AM30" t="n">
-        <v>21168.828</v>
+        <v>44880.352</v>
       </c>
       <c r="AN30" t="n">
-        <v>40156.876</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>41500.952</v>
+        <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>41754.78</v>
+        <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>42746.388</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>44880.352</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4974,144 +4514,129 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2200</v>
+        <v>17.594</v>
       </c>
       <c r="C31" t="n">
-        <v>1653</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1430</v>
+        <v>14.869</v>
       </c>
       <c r="E31" t="n">
-        <v>428</v>
+        <v>489.013</v>
       </c>
       <c r="F31" t="n">
-        <v>17.594</v>
+        <v>674.9400000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>941.018</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1190.572</v>
       </c>
       <c r="I31" t="n">
-        <v>14.869</v>
+        <v>1475.885</v>
       </c>
       <c r="J31" t="n">
-        <v>489.013</v>
+        <v>1178.203</v>
       </c>
       <c r="K31" t="n">
-        <v>674.9400000000001</v>
+        <v>1134.22</v>
       </c>
       <c r="L31" t="n">
-        <v>941.018</v>
+        <v>1370.641</v>
       </c>
       <c r="M31" t="n">
-        <v>1190.572</v>
+        <v>1317.577</v>
       </c>
       <c r="N31" t="n">
-        <v>1475.885</v>
+        <v>1552.042</v>
       </c>
       <c r="O31" t="n">
-        <v>1178.203</v>
+        <v>2066.308</v>
       </c>
       <c r="P31" t="n">
-        <v>1134.22</v>
+        <v>2377.883</v>
       </c>
       <c r="Q31" t="n">
-        <v>1370.641</v>
+        <v>2511.185</v>
       </c>
       <c r="R31" t="n">
-        <v>1317.577</v>
+        <v>2488.034</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.042</v>
+        <v>2435.859</v>
       </c>
       <c r="T31" t="n">
-        <v>2066.308</v>
+        <v>3108.102</v>
       </c>
       <c r="U31" t="n">
-        <v>2377.883</v>
+        <v>3722.464</v>
       </c>
       <c r="V31" t="n">
-        <v>2511.185</v>
+        <v>4905.517</v>
       </c>
       <c r="W31" t="n">
-        <v>2488.034</v>
+        <v>3140.256</v>
       </c>
       <c r="X31" t="n">
-        <v>2435.859</v>
+        <v>3091.358</v>
       </c>
       <c r="Y31" t="n">
-        <v>3108.102</v>
+        <v>3481.487</v>
       </c>
       <c r="Z31" t="n">
-        <v>3722.464</v>
+        <v>2954.618</v>
       </c>
       <c r="AA31" t="n">
-        <v>4905.517</v>
+        <v>2999.683</v>
       </c>
       <c r="AB31" t="n">
-        <v>3140.256</v>
+        <v>2946.599</v>
       </c>
       <c r="AC31" t="n">
-        <v>3091.358</v>
+        <v>2716.818</v>
       </c>
       <c r="AD31" t="n">
-        <v>3481.487</v>
+        <v>4509.678</v>
       </c>
       <c r="AE31" t="n">
-        <v>2954.618</v>
+        <v>3636.272</v>
       </c>
       <c r="AF31" t="n">
-        <v>2999.683</v>
+        <v>4536.503</v>
       </c>
       <c r="AG31" t="n">
-        <v>2946.599</v>
+        <v>3338.492</v>
       </c>
       <c r="AH31" t="n">
-        <v>2716.818</v>
+        <v>3926.629</v>
       </c>
       <c r="AI31" t="n">
-        <v>4509.678</v>
+        <v>5808.025</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3636.272</v>
+        <v>4403.938</v>
       </c>
       <c r="AK31" t="n">
-        <v>4536.503</v>
+        <v>4402.421</v>
       </c>
       <c r="AL31" t="n">
-        <v>3338.492</v>
+        <v>4300.978</v>
       </c>
       <c r="AM31" t="n">
-        <v>3926.629</v>
+        <v>2800.113</v>
       </c>
       <c r="AN31" t="n">
-        <v>5808.025</v>
+        <v>517.4109999999999</v>
       </c>
       <c r="AO31" t="n">
-        <v>4403.938</v>
+        <v>656.782</v>
       </c>
       <c r="AP31" t="n">
-        <v>4402.421</v>
+        <v>605.898</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4300.978</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>2800.113</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>517.4109999999999</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>656.782</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>605.898</v>
-      </c>
-      <c r="AV31" t="n">
         <v>603.627</v>
       </c>
     </row>
@@ -5236,30 +4761,15 @@
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>867.9690000000001</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>905.927</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>743.477</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>867.9690000000001</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>905.927</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>743.477</v>
-      </c>
-      <c r="AV32" t="n">
         <v>696.26</v>
       </c>
     </row>
@@ -5372,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>4308.686</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>4470.466</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>4009.293</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -5387,27 +4897,12 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>4308.686</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>4470.466</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>4009.293</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5418,144 +4913,129 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726</v>
+        <v>891.876</v>
       </c>
       <c r="C34" t="n">
-        <v>1111</v>
+        <v>778.684</v>
       </c>
       <c r="D34" t="n">
-        <v>1299</v>
+        <v>1319.056</v>
       </c>
       <c r="E34" t="n">
-        <v>1094</v>
+        <v>740.472</v>
       </c>
       <c r="F34" t="n">
-        <v>891.876</v>
+        <v>755.712</v>
       </c>
       <c r="G34" t="n">
-        <v>1273</v>
+        <v>927.907</v>
       </c>
       <c r="H34" t="n">
-        <v>778.684</v>
+        <v>901.8680000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>1319.056</v>
+        <v>815.307</v>
       </c>
       <c r="J34" t="n">
-        <v>740.472</v>
+        <v>906.66</v>
       </c>
       <c r="K34" t="n">
-        <v>755.712</v>
+        <v>884.583</v>
       </c>
       <c r="L34" t="n">
-        <v>927.907</v>
+        <v>1043.107</v>
       </c>
       <c r="M34" t="n">
-        <v>901.8680000000001</v>
+        <v>895.511</v>
       </c>
       <c r="N34" t="n">
-        <v>815.307</v>
+        <v>855.548</v>
       </c>
       <c r="O34" t="n">
-        <v>906.66</v>
+        <v>886.905</v>
       </c>
       <c r="P34" t="n">
-        <v>884.583</v>
+        <v>1216.182</v>
       </c>
       <c r="Q34" t="n">
-        <v>1043.107</v>
+        <v>1001.028</v>
       </c>
       <c r="R34" t="n">
-        <v>895.511</v>
+        <v>1148.218</v>
       </c>
       <c r="S34" t="n">
-        <v>855.548</v>
+        <v>1294.472</v>
       </c>
       <c r="T34" t="n">
-        <v>886.905</v>
+        <v>1726.405</v>
       </c>
       <c r="U34" t="n">
-        <v>1216.182</v>
+        <v>1585.554</v>
       </c>
       <c r="V34" t="n">
-        <v>1001.028</v>
+        <v>1963.342</v>
       </c>
       <c r="W34" t="n">
-        <v>1148.218</v>
+        <v>1679.425</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.472</v>
+        <v>2743.148</v>
       </c>
       <c r="Y34" t="n">
-        <v>1726.405</v>
+        <v>3097.422</v>
       </c>
       <c r="Z34" t="n">
-        <v>1585.554</v>
+        <v>2491.011</v>
       </c>
       <c r="AA34" t="n">
-        <v>1963.342</v>
+        <v>3020.96</v>
       </c>
       <c r="AB34" t="n">
-        <v>1679.425</v>
+        <v>2988.599</v>
       </c>
       <c r="AC34" t="n">
-        <v>2743.148</v>
+        <v>2611.173</v>
       </c>
       <c r="AD34" t="n">
-        <v>3097.422</v>
+        <v>4461.621</v>
       </c>
       <c r="AE34" t="n">
-        <v>2491.011</v>
+        <v>3994.27</v>
       </c>
       <c r="AF34" t="n">
-        <v>3020.96</v>
+        <v>3715.425</v>
       </c>
       <c r="AG34" t="n">
-        <v>2988.599</v>
+        <v>4399.899</v>
       </c>
       <c r="AH34" t="n">
-        <v>2611.173</v>
+        <v>6747.26</v>
       </c>
       <c r="AI34" t="n">
-        <v>4461.621</v>
+        <v>3508.532</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3994.27</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>3715.425</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>4399.899</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>6747.26</v>
+        <v>3305.007</v>
       </c>
       <c r="AN34" t="n">
-        <v>3508.532</v>
+        <v>1681.3</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1766.063</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>1764.293</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>3305.007</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1681.3</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1766.063</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>1764.293</v>
-      </c>
-      <c r="AV34" t="n">
         <v>1762.188</v>
       </c>
     </row>
@@ -5566,22 +5046,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -5662,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>17.926</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
@@ -5677,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>17.926</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -5689,21 +5169,6 @@
         <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5839,21 +5304,6 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5862,144 +5312,129 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14563</v>
+        <v>16332.4</v>
       </c>
       <c r="C37" t="n">
-        <v>15405</v>
+        <v>29017.164</v>
       </c>
       <c r="D37" t="n">
-        <v>16143</v>
+        <v>29743.376</v>
       </c>
       <c r="E37" t="n">
-        <v>16178</v>
+        <v>33345.334</v>
       </c>
       <c r="F37" t="n">
-        <v>16332.4</v>
+        <v>34182.128</v>
       </c>
       <c r="G37" t="n">
-        <v>18238</v>
+        <v>34969.54</v>
       </c>
       <c r="H37" t="n">
-        <v>29017.164</v>
+        <v>35844.452</v>
       </c>
       <c r="I37" t="n">
-        <v>29743.376</v>
+        <v>36572.616</v>
       </c>
       <c r="J37" t="n">
-        <v>33345.334</v>
+        <v>37398</v>
       </c>
       <c r="K37" t="n">
-        <v>34182.128</v>
+        <v>38106.448</v>
       </c>
       <c r="L37" t="n">
-        <v>34969.54</v>
+        <v>38808.468</v>
       </c>
       <c r="M37" t="n">
-        <v>35844.452</v>
+        <v>39599.148</v>
       </c>
       <c r="N37" t="n">
-        <v>36572.616</v>
+        <v>40618.08</v>
       </c>
       <c r="O37" t="n">
-        <v>37398</v>
+        <v>41640.24</v>
       </c>
       <c r="P37" t="n">
-        <v>38106.448</v>
+        <v>42448.704</v>
       </c>
       <c r="Q37" t="n">
-        <v>38808.468</v>
+        <v>43040.156</v>
       </c>
       <c r="R37" t="n">
-        <v>39599.148</v>
+        <v>43921.148</v>
       </c>
       <c r="S37" t="n">
-        <v>40618.08</v>
+        <v>44488.192</v>
       </c>
       <c r="T37" t="n">
-        <v>41640.24</v>
+        <v>45068.796</v>
       </c>
       <c r="U37" t="n">
-        <v>42448.704</v>
+        <v>47419.896</v>
       </c>
       <c r="V37" t="n">
-        <v>43040.156</v>
+        <v>48599.412</v>
       </c>
       <c r="W37" t="n">
-        <v>43921.148</v>
+        <v>49223.832</v>
       </c>
       <c r="X37" t="n">
-        <v>44488.192</v>
+        <v>49962.464</v>
       </c>
       <c r="Y37" t="n">
-        <v>45068.796</v>
+        <v>68548.144</v>
       </c>
       <c r="Z37" t="n">
-        <v>47419.896</v>
+        <v>69445.44</v>
       </c>
       <c r="AA37" t="n">
-        <v>48599.412</v>
+        <v>69962.712</v>
       </c>
       <c r="AB37" t="n">
-        <v>49223.832</v>
+        <v>66200.14</v>
       </c>
       <c r="AC37" t="n">
-        <v>49962.464</v>
+        <v>68565.856</v>
       </c>
       <c r="AD37" t="n">
-        <v>68548.144</v>
+        <v>68039.952</v>
       </c>
       <c r="AE37" t="n">
-        <v>69445.44</v>
+        <v>69302.424</v>
       </c>
       <c r="AF37" t="n">
-        <v>69962.712</v>
+        <v>68741.776</v>
       </c>
       <c r="AG37" t="n">
-        <v>66200.14</v>
+        <v>65287.06</v>
       </c>
       <c r="AH37" t="n">
-        <v>68565.856</v>
+        <v>66021.844</v>
       </c>
       <c r="AI37" t="n">
-        <v>68039.952</v>
+        <v>61138.204</v>
       </c>
       <c r="AJ37" t="n">
-        <v>69302.424</v>
+        <v>61133.632</v>
       </c>
       <c r="AK37" t="n">
-        <v>68741.776</v>
+        <v>61133.632</v>
       </c>
       <c r="AL37" t="n">
-        <v>65287.06</v>
+        <v>61133.632</v>
       </c>
       <c r="AM37" t="n">
-        <v>66021.844</v>
+        <v>67636.88</v>
       </c>
       <c r="AN37" t="n">
-        <v>61138.204</v>
+        <v>107958.192</v>
       </c>
       <c r="AO37" t="n">
-        <v>61133.632</v>
+        <v>107897.608</v>
       </c>
       <c r="AP37" t="n">
-        <v>61133.632</v>
+        <v>107890.048</v>
       </c>
       <c r="AQ37" t="n">
-        <v>61133.632</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>67636.88</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>107958.192</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>107897.608</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>107890.048</v>
-      </c>
-      <c r="AV37" t="n">
         <v>107885.432</v>
       </c>
     </row>
@@ -6022,132 +5457,117 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.385999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>57.6</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>182.466</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.057</v>
       </c>
       <c r="K38" t="n">
-        <v>9.385999999999999</v>
+        <v>164.691</v>
       </c>
       <c r="L38" t="n">
-        <v>4.78</v>
+        <v>154.335</v>
       </c>
       <c r="M38" t="n">
-        <v>57.6</v>
+        <v>143.726</v>
       </c>
       <c r="N38" t="n">
-        <v>182.466</v>
+        <v>133.2</v>
       </c>
       <c r="O38" t="n">
-        <v>175.057</v>
+        <v>278.24</v>
       </c>
       <c r="P38" t="n">
-        <v>164.691</v>
+        <v>228.543</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.335</v>
+        <v>178.286</v>
       </c>
       <c r="R38" t="n">
-        <v>143.726</v>
+        <v>127.529</v>
       </c>
       <c r="S38" t="n">
-        <v>133.2</v>
+        <v>76.494</v>
       </c>
       <c r="T38" t="n">
-        <v>278.24</v>
+        <v>64.131</v>
       </c>
       <c r="U38" t="n">
-        <v>228.543</v>
+        <v>51.541</v>
       </c>
       <c r="V38" t="n">
-        <v>178.286</v>
+        <v>38.714</v>
       </c>
       <c r="W38" t="n">
-        <v>127.529</v>
+        <v>38.142</v>
       </c>
       <c r="X38" t="n">
-        <v>76.494</v>
+        <v>39.009</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.131</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>51.541</v>
+        <v>594.833</v>
       </c>
       <c r="AA38" t="n">
-        <v>38.714</v>
+        <v>545.675</v>
       </c>
       <c r="AB38" t="n">
-        <v>38.142</v>
+        <v>545.675</v>
       </c>
       <c r="AC38" t="n">
-        <v>39.009</v>
+        <v>205.836</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>594.833</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>545.675</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>545.675</v>
+        <v>225.398</v>
       </c>
       <c r="AH38" t="n">
-        <v>205.836</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>201.855</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>61133.632</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>61133.632</v>
       </c>
       <c r="AL38" t="n">
-        <v>225.398</v>
+        <v>61133.632</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>80.143</v>
       </c>
       <c r="AN38" t="n">
-        <v>201.855</v>
+        <v>80.143</v>
       </c>
       <c r="AO38" t="n">
-        <v>61133.632</v>
+        <v>80.143</v>
       </c>
       <c r="AP38" t="n">
-        <v>61133.632</v>
+        <v>80.143</v>
       </c>
       <c r="AQ38" t="n">
-        <v>61133.632</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>80.143</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>80.143</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>80.143</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>80.143</v>
-      </c>
-      <c r="AV38" t="n">
         <v>80.143</v>
       </c>
     </row>
@@ -6283,21 +5703,6 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6306,144 +5711,129 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14563</v>
+        <v>16332.4</v>
       </c>
       <c r="C40" t="n">
-        <v>15405</v>
+        <v>29017.164</v>
       </c>
       <c r="D40" t="n">
-        <v>16143</v>
+        <v>29743.376</v>
       </c>
       <c r="E40" t="n">
-        <v>16178</v>
+        <v>33345.334</v>
       </c>
       <c r="F40" t="n">
-        <v>16332.4</v>
+        <v>34172.74</v>
       </c>
       <c r="G40" t="n">
-        <v>18238</v>
+        <v>34964.76</v>
       </c>
       <c r="H40" t="n">
-        <v>29017.164</v>
+        <v>35786.852</v>
       </c>
       <c r="I40" t="n">
-        <v>29743.376</v>
+        <v>36390.152</v>
       </c>
       <c r="J40" t="n">
-        <v>33345.334</v>
+        <v>37222.944</v>
       </c>
       <c r="K40" t="n">
-        <v>34172.74</v>
+        <v>37941.756</v>
       </c>
       <c r="L40" t="n">
-        <v>34964.76</v>
+        <v>38654.136</v>
       </c>
       <c r="M40" t="n">
-        <v>35786.852</v>
+        <v>39455.42</v>
       </c>
       <c r="N40" t="n">
-        <v>36390.152</v>
+        <v>40484.88</v>
       </c>
       <c r="O40" t="n">
-        <v>37222.944</v>
+        <v>41362</v>
       </c>
       <c r="P40" t="n">
-        <v>37941.756</v>
+        <v>42220.16</v>
       </c>
       <c r="Q40" t="n">
-        <v>38654.136</v>
+        <v>42861.872</v>
       </c>
       <c r="R40" t="n">
-        <v>39455.42</v>
+        <v>43793.62</v>
       </c>
       <c r="S40" t="n">
-        <v>40484.88</v>
+        <v>44411.7</v>
       </c>
       <c r="T40" t="n">
-        <v>41362</v>
+        <v>45004.664</v>
       </c>
       <c r="U40" t="n">
-        <v>42220.16</v>
+        <v>47368.356</v>
       </c>
       <c r="V40" t="n">
-        <v>42861.872</v>
+        <v>48260.696</v>
       </c>
       <c r="W40" t="n">
-        <v>43793.62</v>
+        <v>48885.688</v>
       </c>
       <c r="X40" t="n">
-        <v>44411.7</v>
+        <v>49623.452</v>
       </c>
       <c r="Y40" t="n">
-        <v>45004.664</v>
+        <v>67292.84</v>
       </c>
       <c r="Z40" t="n">
-        <v>47368.356</v>
+        <v>67595.304</v>
       </c>
       <c r="AA40" t="n">
-        <v>48260.696</v>
+        <v>68161.736</v>
       </c>
       <c r="AB40" t="n">
-        <v>48885.688</v>
+        <v>64399.16</v>
       </c>
       <c r="AC40" t="n">
-        <v>49623.452</v>
+        <v>67214.552</v>
       </c>
       <c r="AD40" t="n">
-        <v>67292.84</v>
+        <v>66894.476</v>
       </c>
       <c r="AE40" t="n">
-        <v>67595.304</v>
+        <v>68162.60799999999</v>
       </c>
       <c r="AF40" t="n">
-        <v>68161.736</v>
+        <v>67601.96000000001</v>
       </c>
       <c r="AG40" t="n">
-        <v>64399.16</v>
+        <v>63834.624</v>
       </c>
       <c r="AH40" t="n">
-        <v>67214.552</v>
+        <v>64794.808</v>
       </c>
       <c r="AI40" t="n">
-        <v>66894.476</v>
+        <v>55538.56</v>
       </c>
       <c r="AJ40" t="n">
-        <v>68162.60799999999</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>67601.96000000001</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>63834.624</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>64794.808</v>
+        <v>57644.872</v>
       </c>
       <c r="AN40" t="n">
-        <v>55538.56</v>
+        <v>95758.96000000001</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>95755.84</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>95754.224</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>57644.872</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>95758.96000000001</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>95755.84</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>95754.224</v>
-      </c>
-      <c r="AV40" t="n">
         <v>95749.60799999999</v>
       </c>
     </row>
@@ -6568,30 +5958,15 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>758.3869999999999</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>758.3869999999999</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>758.3869999999999</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>758.3869999999999</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>758.3869999999999</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>758.3869999999999</v>
-      </c>
-      <c r="AV41" t="n">
         <v>758.3869999999999</v>
       </c>
     </row>
@@ -6727,21 +6102,6 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6810,84 +6170,69 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1255.305</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1255.305</v>
       </c>
       <c r="AA43" t="n">
-        <v>300</v>
+        <v>1255.305</v>
       </c>
       <c r="AB43" t="n">
-        <v>300</v>
+        <v>1255.305</v>
       </c>
       <c r="AC43" t="n">
-        <v>300</v>
+        <v>1145.471</v>
       </c>
       <c r="AD43" t="n">
-        <v>1255.305</v>
+        <v>1145.471</v>
       </c>
       <c r="AE43" t="n">
-        <v>1255.305</v>
+        <v>1139.816</v>
       </c>
       <c r="AF43" t="n">
-        <v>1255.305</v>
+        <v>1139.816</v>
       </c>
       <c r="AG43" t="n">
-        <v>1255.305</v>
+        <v>1227.038</v>
       </c>
       <c r="AH43" t="n">
-        <v>1145.471</v>
+        <v>1227.038</v>
       </c>
       <c r="AI43" t="n">
-        <v>1145.471</v>
+        <v>5397.787</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1139.816</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>1139.816</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>1227.038</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>1227.038</v>
+        <v>9911.868</v>
       </c>
       <c r="AN43" t="n">
-        <v>5397.787</v>
+        <v>11360.705</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>11303.236</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>11297.293</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>9911.868</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>11360.705</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>11303.236</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>11297.293</v>
-      </c>
-      <c r="AV43" t="n">
         <v>11297.293</v>
       </c>
     </row>
@@ -7023,21 +6368,6 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7171,21 +6501,6 @@
       <c r="AQ45" t="n">
         <v>0</v>
       </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7319,21 +6634,6 @@
       <c r="AQ46" t="n">
         <v>0</v>
       </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7342,144 +6642,129 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-14128</v>
+        <v>12337.149</v>
       </c>
       <c r="C47" t="n">
-        <v>-18344</v>
+        <v>9441.455</v>
       </c>
       <c r="D47" t="n">
-        <v>-20147</v>
+        <v>9217.606</v>
       </c>
       <c r="E47" t="n">
-        <v>-22149</v>
+        <v>5788.024</v>
       </c>
       <c r="F47" t="n">
-        <v>12337.149</v>
+        <v>5198.498</v>
       </c>
       <c r="G47" t="n">
-        <v>-29079</v>
+        <v>4685.686</v>
       </c>
       <c r="H47" t="n">
-        <v>9441.455</v>
+        <v>4351.424</v>
       </c>
       <c r="I47" t="n">
-        <v>9217.606</v>
+        <v>4329.777</v>
       </c>
       <c r="J47" t="n">
-        <v>5788.024</v>
+        <v>3625.741</v>
       </c>
       <c r="K47" t="n">
-        <v>5198.498</v>
+        <v>3316.841</v>
       </c>
       <c r="L47" t="n">
-        <v>4685.686</v>
+        <v>3068.689</v>
       </c>
       <c r="M47" t="n">
-        <v>4351.424</v>
+        <v>3042.154</v>
       </c>
       <c r="N47" t="n">
-        <v>4329.777</v>
+        <v>2083.622</v>
       </c>
       <c r="O47" t="n">
-        <v>3625.741</v>
+        <v>1300.755</v>
       </c>
       <c r="P47" t="n">
-        <v>3316.841</v>
+        <v>5555.819</v>
       </c>
       <c r="Q47" t="n">
-        <v>3068.689</v>
+        <v>4975.5</v>
       </c>
       <c r="R47" t="n">
-        <v>3042.154</v>
+        <v>4261.593</v>
       </c>
       <c r="S47" t="n">
-        <v>2083.622</v>
+        <v>3802.529</v>
       </c>
       <c r="T47" t="n">
-        <v>1300.755</v>
+        <v>3002.133</v>
       </c>
       <c r="U47" t="n">
-        <v>5555.819</v>
+        <v>5094.7</v>
       </c>
       <c r="V47" t="n">
-        <v>4975.5</v>
+        <v>-37323.448</v>
       </c>
       <c r="W47" t="n">
-        <v>4261.593</v>
+        <v>-40629.18</v>
       </c>
       <c r="X47" t="n">
-        <v>3802.529</v>
+        <v>-43132.82</v>
       </c>
       <c r="Y47" t="n">
-        <v>3002.133</v>
+        <v>-64438.992</v>
       </c>
       <c r="Z47" t="n">
-        <v>5094.7</v>
+        <v>-66417.636</v>
       </c>
       <c r="AA47" t="n">
-        <v>-37323.448</v>
+        <v>-68379.45600000001</v>
       </c>
       <c r="AB47" t="n">
-        <v>-40629.18</v>
+        <v>-66897.488</v>
       </c>
       <c r="AC47" t="n">
-        <v>-43132.82</v>
+        <v>-68983.45600000001</v>
       </c>
       <c r="AD47" t="n">
-        <v>-64438.992</v>
+        <v>-70762.432</v>
       </c>
       <c r="AE47" t="n">
-        <v>-66417.636</v>
+        <v>-73664.96000000001</v>
       </c>
       <c r="AF47" t="n">
-        <v>-68379.45600000001</v>
+        <v>-76057.416</v>
       </c>
       <c r="AG47" t="n">
-        <v>-66897.488</v>
+        <v>-73732.592</v>
       </c>
       <c r="AH47" t="n">
-        <v>-68983.45600000001</v>
+        <v>-73665.296</v>
       </c>
       <c r="AI47" t="n">
-        <v>-70762.432</v>
+        <v>-92571.88</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-73664.96000000001</v>
+        <v>-94378.96000000001</v>
       </c>
       <c r="AK47" t="n">
-        <v>-76057.416</v>
+        <v>-94646.152</v>
       </c>
       <c r="AL47" t="n">
-        <v>-73732.592</v>
+        <v>-95715.54399999999</v>
       </c>
       <c r="AM47" t="n">
-        <v>-73665.296</v>
+        <v>-101513.872</v>
       </c>
       <c r="AN47" t="n">
-        <v>-92571.88</v>
+        <v>-102292.592</v>
       </c>
       <c r="AO47" t="n">
-        <v>-94378.96000000001</v>
+        <v>-102372.984</v>
       </c>
       <c r="AP47" t="n">
-        <v>-94646.152</v>
+        <v>-102484.4</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-95715.54399999999</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>-101513.872</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>-102292.592</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>-102372.984</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>-102484.4</v>
-      </c>
-      <c r="AV47" t="n">
         <v>-102666.872</v>
       </c>
     </row>
@@ -7490,22 +6775,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9500</v>
+        <v>22498.404</v>
       </c>
       <c r="C48" t="n">
-        <v>9500</v>
+        <v>22498.404</v>
       </c>
       <c r="D48" t="n">
-        <v>9500</v>
+        <v>22498.404</v>
       </c>
       <c r="E48" t="n">
-        <v>9500</v>
+        <v>22498.404</v>
       </c>
       <c r="F48" t="n">
         <v>22498.404</v>
       </c>
       <c r="G48" t="n">
-        <v>9500</v>
+        <v>22498.404</v>
       </c>
       <c r="H48" t="n">
         <v>22498.404</v>
@@ -7589,19 +6874,19 @@
         <v>22498.404</v>
       </c>
       <c r="AI48" t="n">
-        <v>22498.404</v>
+        <v>22497.9</v>
       </c>
       <c r="AJ48" t="n">
-        <v>22498.404</v>
+        <v>22497.9</v>
       </c>
       <c r="AK48" t="n">
-        <v>22498.404</v>
+        <v>22497.9</v>
       </c>
       <c r="AL48" t="n">
-        <v>22498.404</v>
+        <v>22497.9</v>
       </c>
       <c r="AM48" t="n">
-        <v>22498.404</v>
+        <v>22497.9</v>
       </c>
       <c r="AN48" t="n">
         <v>22497.9</v>
@@ -7613,21 +6898,6 @@
         <v>22497.9</v>
       </c>
       <c r="AQ48" t="n">
-        <v>22497.9</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>22497.9</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>22497.9</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>22497.9</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>22497.9</v>
-      </c>
-      <c r="AV48" t="n">
         <v>22497.9</v>
       </c>
     </row>
@@ -7638,22 +6908,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2909</v>
+        <v>1072.558</v>
       </c>
       <c r="C49" t="n">
-        <v>2881</v>
+        <v>1072.558</v>
       </c>
       <c r="D49" t="n">
-        <v>2868</v>
+        <v>1072.558</v>
       </c>
       <c r="E49" t="n">
-        <v>2854</v>
+        <v>1072.558</v>
       </c>
       <c r="F49" t="n">
         <v>1072.558</v>
       </c>
       <c r="G49" t="n">
-        <v>2826</v>
+        <v>1072.558</v>
       </c>
       <c r="H49" t="n">
         <v>1072.558</v>
@@ -7737,45 +7007,30 @@
         <v>1072.558</v>
       </c>
       <c r="AI49" t="n">
-        <v>1072.558</v>
+        <v>1073.062</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1072.558</v>
+        <v>9341.629999999999</v>
       </c>
       <c r="AK49" t="n">
-        <v>1072.558</v>
+        <v>9341.629999999999</v>
       </c>
       <c r="AL49" t="n">
-        <v>1072.558</v>
+        <v>9341.629999999999</v>
       </c>
       <c r="AM49" t="n">
-        <v>1072.558</v>
+        <v>1073.062</v>
       </c>
       <c r="AN49" t="n">
         <v>1073.062</v>
       </c>
       <c r="AO49" t="n">
-        <v>9341.629999999999</v>
+        <v>1073.062</v>
       </c>
       <c r="AP49" t="n">
-        <v>9341.629999999999</v>
+        <v>1073.062</v>
       </c>
       <c r="AQ49" t="n">
-        <v>9341.629999999999</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>1073.062</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>1073.062</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>1073.062</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>1073.062</v>
-      </c>
-      <c r="AV49" t="n">
         <v>1073.062</v>
       </c>
     </row>
@@ -7786,144 +7041,129 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3396</v>
+        <v>5738.214</v>
       </c>
       <c r="C50" t="n">
-        <v>3309</v>
+        <v>5647.311</v>
       </c>
       <c r="D50" t="n">
-        <v>3266</v>
+        <v>5601.36</v>
       </c>
       <c r="E50" t="n">
-        <v>3223</v>
+        <v>5555.41</v>
       </c>
       <c r="F50" t="n">
-        <v>5738.214</v>
+        <v>5510.457</v>
       </c>
       <c r="G50" t="n">
-        <v>3137</v>
+        <v>5465.007</v>
       </c>
       <c r="H50" t="n">
-        <v>5647.311</v>
+        <v>5419.056</v>
       </c>
       <c r="I50" t="n">
-        <v>5601.36</v>
+        <v>5373.105</v>
       </c>
       <c r="J50" t="n">
-        <v>5555.41</v>
+        <v>5328.153</v>
       </c>
       <c r="K50" t="n">
-        <v>5510.457</v>
+        <v>5282.702</v>
       </c>
       <c r="L50" t="n">
-        <v>5465.007</v>
+        <v>5236.751</v>
       </c>
       <c r="M50" t="n">
-        <v>5419.056</v>
+        <v>5190.801</v>
       </c>
       <c r="N50" t="n">
-        <v>5373.105</v>
+        <v>5145.849</v>
       </c>
       <c r="O50" t="n">
-        <v>5328.153</v>
+        <v>5100.397</v>
       </c>
       <c r="P50" t="n">
-        <v>5282.702</v>
+        <v>10492.999</v>
       </c>
       <c r="Q50" t="n">
-        <v>5236.751</v>
+        <v>10419.673</v>
       </c>
       <c r="R50" t="n">
-        <v>5190.801</v>
+        <v>10347.145</v>
       </c>
       <c r="S50" t="n">
-        <v>5145.849</v>
+        <v>10274.616</v>
       </c>
       <c r="T50" t="n">
-        <v>5100.397</v>
+        <v>10201.29</v>
       </c>
       <c r="U50" t="n">
-        <v>10492.999</v>
+        <v>9151.563</v>
       </c>
       <c r="V50" t="n">
-        <v>10419.673</v>
+        <v>9097.047</v>
       </c>
       <c r="W50" t="n">
-        <v>10347.145</v>
+        <v>9041.925999999999</v>
       </c>
       <c r="X50" t="n">
-        <v>10274.616</v>
+        <v>8986.198</v>
       </c>
       <c r="Y50" t="n">
-        <v>10201.29</v>
+        <v>8930.279</v>
       </c>
       <c r="Z50" t="n">
-        <v>9151.563</v>
+        <v>8874.137000000001</v>
       </c>
       <c r="AA50" t="n">
-        <v>9097.047</v>
+        <v>8817.803</v>
       </c>
       <c r="AB50" t="n">
-        <v>9041.925999999999</v>
+        <v>8765.106</v>
       </c>
       <c r="AC50" t="n">
-        <v>8986.198</v>
+        <v>8709.379000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>8930.279</v>
+        <v>8654.861999999999</v>
       </c>
       <c r="AE50" t="n">
-        <v>8874.137000000001</v>
+        <v>8599.741</v>
       </c>
       <c r="AF50" t="n">
-        <v>8817.803</v>
+        <v>8544.013000000001</v>
       </c>
       <c r="AG50" t="n">
-        <v>8765.106</v>
+        <v>8488.286</v>
       </c>
       <c r="AH50" t="n">
-        <v>8709.379000000001</v>
+        <v>8488.286</v>
       </c>
       <c r="AI50" t="n">
-        <v>8654.861999999999</v>
+        <v>8268.567999999999</v>
       </c>
       <c r="AJ50" t="n">
-        <v>8599.741</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>8544.013000000001</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>8488.286</v>
+        <v>0</v>
       </c>
       <c r="AM50" t="n">
-        <v>8488.286</v>
+        <v>8268.567999999999</v>
       </c>
       <c r="AN50" t="n">
         <v>8268.567999999999</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>8268.567999999999</v>
       </c>
       <c r="AP50" t="n">
-        <v>0</v>
+        <v>8268.567999999999</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>8268.567999999999</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>8268.567999999999</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>8268.567999999999</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>8268.567999999999</v>
-      </c>
-      <c r="AV50" t="n">
         <v>8268.567999999999</v>
       </c>
     </row>
@@ -7934,22 +7174,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -8057,21 +7297,6 @@
         <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8082,144 +7307,129 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-29936</v>
+        <v>-16972.028</v>
       </c>
       <c r="C52" t="n">
-        <v>-34037</v>
+        <v>-19776.818</v>
       </c>
       <c r="D52" t="n">
-        <v>-35784</v>
+        <v>-19954.716</v>
       </c>
       <c r="E52" t="n">
-        <v>-37729</v>
+        <v>-23338.348</v>
       </c>
       <c r="F52" t="n">
-        <v>-16972.028</v>
+        <v>-23882.92</v>
       </c>
       <c r="G52" t="n">
-        <v>-44545</v>
+        <v>-24350.284</v>
       </c>
       <c r="H52" t="n">
-        <v>-19776.818</v>
+        <v>-24638.594</v>
       </c>
       <c r="I52" t="n">
-        <v>-19954.716</v>
+        <v>-24614.29</v>
       </c>
       <c r="J52" t="n">
-        <v>-23338.348</v>
+        <v>-25273.374</v>
       </c>
       <c r="K52" t="n">
-        <v>-23882.92</v>
+        <v>-25536.824</v>
       </c>
       <c r="L52" t="n">
-        <v>-24350.284</v>
+        <v>-25739.024</v>
       </c>
       <c r="M52" t="n">
-        <v>-24638.594</v>
+        <v>-25719.608</v>
       </c>
       <c r="N52" t="n">
-        <v>-24614.29</v>
+        <v>-26633.188</v>
       </c>
       <c r="O52" t="n">
-        <v>-25273.374</v>
+        <v>-27370.604</v>
       </c>
       <c r="P52" t="n">
-        <v>-25536.824</v>
+        <v>-28508.142</v>
       </c>
       <c r="Q52" t="n">
-        <v>-25739.024</v>
+        <v>-29015.136</v>
       </c>
       <c r="R52" t="n">
-        <v>-25719.608</v>
+        <v>-29656.514</v>
       </c>
       <c r="S52" t="n">
-        <v>-26633.188</v>
+        <v>-30043.048</v>
       </c>
       <c r="T52" t="n">
-        <v>-27370.604</v>
+        <v>-30770.12</v>
       </c>
       <c r="U52" t="n">
-        <v>-28508.142</v>
+        <v>-27627.824</v>
       </c>
       <c r="V52" t="n">
-        <v>-29015.136</v>
+        <v>-69991.45600000001</v>
       </c>
       <c r="W52" t="n">
-        <v>-29656.514</v>
+        <v>-73242.064</v>
       </c>
       <c r="X52" t="n">
-        <v>-30043.048</v>
+        <v>-75689.984</v>
       </c>
       <c r="Y52" t="n">
-        <v>-30770.12</v>
+        <v>-96940.232</v>
       </c>
       <c r="Z52" t="n">
-        <v>-27627.824</v>
+        <v>-98862.736</v>
       </c>
       <c r="AA52" t="n">
-        <v>-69991.45600000001</v>
+        <v>-100768.224</v>
       </c>
       <c r="AB52" t="n">
-        <v>-73242.064</v>
+        <v>-99233.552</v>
       </c>
       <c r="AC52" t="n">
-        <v>-75689.984</v>
+        <v>-101263.8</v>
       </c>
       <c r="AD52" t="n">
-        <v>-96940.232</v>
+        <v>-102988.256</v>
       </c>
       <c r="AE52" t="n">
-        <v>-98862.736</v>
+        <v>-105835.664</v>
       </c>
       <c r="AF52" t="n">
-        <v>-100768.224</v>
+        <v>-108172.392</v>
       </c>
       <c r="AG52" t="n">
-        <v>-99233.552</v>
+        <v>-105791.84</v>
       </c>
       <c r="AH52" t="n">
-        <v>-101263.8</v>
+        <v>-105724.544</v>
       </c>
       <c r="AI52" t="n">
-        <v>-102988.256</v>
+        <v>-124411.408</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-105835.664</v>
+        <v>-126218.488</v>
       </c>
       <c r="AK52" t="n">
-        <v>-108172.392</v>
+        <v>-126485.68</v>
       </c>
       <c r="AL52" t="n">
-        <v>-105791.84</v>
+        <v>-127555.072</v>
       </c>
       <c r="AM52" t="n">
-        <v>-105724.544</v>
+        <v>-133353.408</v>
       </c>
       <c r="AN52" t="n">
-        <v>-124411.408</v>
+        <v>-134132.12</v>
       </c>
       <c r="AO52" t="n">
-        <v>-126218.488</v>
+        <v>-134212.512</v>
       </c>
       <c r="AP52" t="n">
-        <v>-126485.68</v>
+        <v>-134323.936</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-127555.072</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>-133353.408</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>-134132.12</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>-134212.512</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>-134323.936</v>
-      </c>
-      <c r="AV52" t="n">
         <v>-134506.4</v>
       </c>
     </row>
@@ -8355,21 +7565,6 @@
       <c r="AQ53" t="n">
         <v>0</v>
       </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8503,21 +7698,6 @@
       <c r="AQ54" t="n">
         <v>0</v>
       </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8651,21 +7831,6 @@
       <c r="AQ55" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8799,21 +7964,6 @@
       <c r="AQ56" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8821,143 +7971,128 @@
           <t>Receita Bruta de Vendas e/ou Serviços</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>4241</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>4682</v>
+        <v>5913.86</v>
       </c>
       <c r="D57" t="n">
-        <v>4567</v>
+        <v>4689.07</v>
       </c>
       <c r="E57" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+        <v>-7422.146</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4857.45</v>
+      </c>
       <c r="G57" t="n">
-        <v>2520</v>
+        <v>5620.807</v>
       </c>
       <c r="H57" t="n">
-        <v>5913.86</v>
+        <v>5205.809</v>
       </c>
       <c r="I57" t="n">
-        <v>4689.07</v>
+        <v>7640.81</v>
       </c>
       <c r="J57" t="n">
-        <v>-7422.146</v>
+        <v>5038.793</v>
       </c>
       <c r="K57" t="n">
-        <v>4857.45</v>
+        <v>5901.911</v>
       </c>
       <c r="L57" t="n">
-        <v>5620.807</v>
+        <v>5936.809</v>
       </c>
       <c r="M57" t="n">
-        <v>5205.809</v>
+        <v>7217.526</v>
       </c>
       <c r="N57" t="n">
-        <v>7640.81</v>
+        <v>4432.618</v>
       </c>
       <c r="O57" t="n">
-        <v>5038.793</v>
+        <v>5249.622</v>
       </c>
       <c r="P57" t="n">
-        <v>5901.911</v>
+        <v>4656.261</v>
       </c>
       <c r="Q57" t="n">
-        <v>5936.809</v>
+        <v>5825.551</v>
       </c>
       <c r="R57" t="n">
-        <v>7217.526</v>
+        <v>6132.689</v>
       </c>
       <c r="S57" t="n">
-        <v>4432.618</v>
+        <v>6783.724</v>
       </c>
       <c r="T57" t="n">
-        <v>5249.622</v>
+        <v>7455.471</v>
       </c>
       <c r="U57" t="n">
-        <v>4656.261</v>
+        <v>7144.976</v>
       </c>
       <c r="V57" t="n">
-        <v>5825.551</v>
+        <v>8183.959</v>
       </c>
       <c r="W57" t="n">
-        <v>6132.689</v>
+        <v>3969.394</v>
       </c>
       <c r="X57" t="n">
-        <v>6783.724</v>
+        <v>2028.387</v>
       </c>
       <c r="Y57" t="n">
-        <v>7455.471</v>
+        <v>2814.288</v>
       </c>
       <c r="Z57" t="n">
-        <v>7144.976</v>
+        <v>2748.4</v>
       </c>
       <c r="AA57" t="n">
-        <v>8183.959</v>
+        <v>2903.208</v>
       </c>
       <c r="AB57" t="n">
-        <v>3969.394</v>
+        <v>3974.004</v>
       </c>
       <c r="AC57" t="n">
-        <v>2028.387</v>
+        <v>5948.579</v>
       </c>
       <c r="AD57" t="n">
-        <v>2814.288</v>
+        <v>4025.039</v>
       </c>
       <c r="AE57" t="n">
-        <v>2748.4</v>
+        <v>6911.753</v>
       </c>
       <c r="AF57" t="n">
-        <v>2903.208</v>
+        <v>7137.624</v>
       </c>
       <c r="AG57" t="n">
-        <v>3974.004</v>
+        <v>6257</v>
       </c>
       <c r="AH57" t="n">
-        <v>5948.579</v>
+        <v>2330.775</v>
       </c>
       <c r="AI57" t="n">
-        <v>4025.039</v>
+        <v>-35550.08</v>
       </c>
       <c r="AJ57" t="n">
-        <v>6911.753</v>
+        <v>1293.811</v>
       </c>
       <c r="AK57" t="n">
-        <v>7137.624</v>
+        <v>1296.855</v>
       </c>
       <c r="AL57" t="n">
-        <v>6257</v>
+        <v>498.612</v>
       </c>
       <c r="AM57" t="n">
-        <v>2330.775</v>
+        <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>-35550.08</v>
+        <v>0</v>
       </c>
       <c r="AO57" t="n">
-        <v>1293.811</v>
+        <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>1296.855</v>
+        <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>498.612</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8967,143 +8102,128 @@
           <t>Deduções da Receita Bruta</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>-697</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>-880</v>
+        <v>-1664.179</v>
       </c>
       <c r="D58" t="n">
-        <v>-830</v>
+        <v>-1086.463</v>
       </c>
       <c r="E58" t="n">
-        <v>-794</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
+        <v>1879.533</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-1230.107</v>
+      </c>
       <c r="G58" t="n">
-        <v>-93</v>
+        <v>-1331.029</v>
       </c>
       <c r="H58" t="n">
-        <v>-1664.179</v>
+        <v>-1308.471</v>
       </c>
       <c r="I58" t="n">
-        <v>-1086.463</v>
+        <v>-1983.783</v>
       </c>
       <c r="J58" t="n">
-        <v>1879.533</v>
+        <v>-1445.151</v>
       </c>
       <c r="K58" t="n">
-        <v>-1230.107</v>
+        <v>-1716.48</v>
       </c>
       <c r="L58" t="n">
-        <v>-1331.029</v>
+        <v>-1480.125</v>
       </c>
       <c r="M58" t="n">
-        <v>-1308.471</v>
+        <v>-1720.926</v>
       </c>
       <c r="N58" t="n">
-        <v>-1983.783</v>
+        <v>-1094.687</v>
       </c>
       <c r="O58" t="n">
-        <v>-1445.151</v>
+        <v>-1313.903</v>
       </c>
       <c r="P58" t="n">
-        <v>-1716.48</v>
+        <v>-1105.868</v>
       </c>
       <c r="Q58" t="n">
-        <v>-1480.125</v>
+        <v>-1562.011</v>
       </c>
       <c r="R58" t="n">
-        <v>-1720.926</v>
+        <v>-2186.927</v>
       </c>
       <c r="S58" t="n">
-        <v>-1094.687</v>
+        <v>-2576.625</v>
       </c>
       <c r="T58" t="n">
-        <v>-1313.903</v>
+        <v>-2667.572</v>
       </c>
       <c r="U58" t="n">
-        <v>-1105.868</v>
+        <v>-3121.903</v>
       </c>
       <c r="V58" t="n">
-        <v>-1562.011</v>
+        <v>-3155.555</v>
       </c>
       <c r="W58" t="n">
-        <v>-2186.927</v>
+        <v>-1560.494</v>
       </c>
       <c r="X58" t="n">
-        <v>-2576.625</v>
+        <v>-818.077</v>
       </c>
       <c r="Y58" t="n">
-        <v>-2667.572</v>
+        <v>-923.899</v>
       </c>
       <c r="Z58" t="n">
-        <v>-3121.903</v>
+        <v>-1331.911</v>
       </c>
       <c r="AA58" t="n">
-        <v>-3155.555</v>
+        <v>-1625.967</v>
       </c>
       <c r="AB58" t="n">
-        <v>-1560.494</v>
+        <v>-1471.415</v>
       </c>
       <c r="AC58" t="n">
-        <v>-818.077</v>
+        <v>-2772.484</v>
       </c>
       <c r="AD58" t="n">
-        <v>-923.899</v>
+        <v>-1474.713</v>
       </c>
       <c r="AE58" t="n">
-        <v>-1331.911</v>
+        <v>-4226.623</v>
       </c>
       <c r="AF58" t="n">
-        <v>-1625.967</v>
+        <v>-4889.337</v>
       </c>
       <c r="AG58" t="n">
-        <v>-1471.415</v>
+        <v>-3928.413</v>
       </c>
       <c r="AH58" t="n">
-        <v>-2772.484</v>
+        <v>-984.783</v>
       </c>
       <c r="AI58" t="n">
-        <v>-1474.713</v>
+        <v>22546.784</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-4226.623</v>
+        <v>-381.131</v>
       </c>
       <c r="AK58" t="n">
-        <v>-4889.337</v>
+        <v>-214.301</v>
       </c>
       <c r="AL58" t="n">
-        <v>-3928.413</v>
+        <v>-97.551</v>
       </c>
       <c r="AM58" t="n">
-        <v>-984.783</v>
+        <v>-3.399</v>
       </c>
       <c r="AN58" t="n">
-        <v>22546.784</v>
+        <v>0</v>
       </c>
       <c r="AO58" t="n">
-        <v>-381.131</v>
+        <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>-214.301</v>
+        <v>0</v>
       </c>
       <c r="AQ58" t="n">
-        <v>-97.551</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>-3.399</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9113,143 +8233,128 @@
           <t>Receita Líquida de Vendas e/ou Serviços</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>3544</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>3802</v>
+        <v>4249.681</v>
       </c>
       <c r="D59" t="n">
-        <v>3737</v>
+        <v>3602.607</v>
       </c>
       <c r="E59" t="n">
-        <v>3199</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
+        <v>-5542.616</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3627.343</v>
+      </c>
       <c r="G59" t="n">
-        <v>2427</v>
+        <v>4289.778</v>
       </c>
       <c r="H59" t="n">
-        <v>4249.681</v>
+        <v>3897.338</v>
       </c>
       <c r="I59" t="n">
-        <v>3602.607</v>
+        <v>5657.027</v>
       </c>
       <c r="J59" t="n">
-        <v>-5542.616</v>
+        <v>3593.642</v>
       </c>
       <c r="K59" t="n">
-        <v>3627.343</v>
+        <v>4185.431</v>
       </c>
       <c r="L59" t="n">
-        <v>4289.778</v>
+        <v>4456.684</v>
       </c>
       <c r="M59" t="n">
-        <v>3897.338</v>
+        <v>5496.599</v>
       </c>
       <c r="N59" t="n">
-        <v>5657.027</v>
+        <v>3337.931</v>
       </c>
       <c r="O59" t="n">
-        <v>3593.642</v>
+        <v>3935.719</v>
       </c>
       <c r="P59" t="n">
-        <v>4185.431</v>
+        <v>3550.393</v>
       </c>
       <c r="Q59" t="n">
-        <v>4456.684</v>
+        <v>4263.539</v>
       </c>
       <c r="R59" t="n">
-        <v>5496.599</v>
+        <v>3945.762</v>
       </c>
       <c r="S59" t="n">
-        <v>3337.931</v>
+        <v>4207.099</v>
       </c>
       <c r="T59" t="n">
-        <v>3935.719</v>
+        <v>4787.899</v>
       </c>
       <c r="U59" t="n">
-        <v>3550.393</v>
+        <v>4023.074</v>
       </c>
       <c r="V59" t="n">
-        <v>4263.539</v>
+        <v>5028.404</v>
       </c>
       <c r="W59" t="n">
-        <v>3945.762</v>
+        <v>2408.9</v>
       </c>
       <c r="X59" t="n">
-        <v>4207.099</v>
+        <v>1210.31</v>
       </c>
       <c r="Y59" t="n">
-        <v>4787.899</v>
+        <v>1890.389</v>
       </c>
       <c r="Z59" t="n">
-        <v>4023.074</v>
+        <v>1416.489</v>
       </c>
       <c r="AA59" t="n">
-        <v>5028.404</v>
+        <v>1277.241</v>
       </c>
       <c r="AB59" t="n">
-        <v>2408.9</v>
+        <v>2502.589</v>
       </c>
       <c r="AC59" t="n">
-        <v>1210.31</v>
+        <v>3176.095</v>
       </c>
       <c r="AD59" t="n">
-        <v>1890.389</v>
+        <v>2550.326</v>
       </c>
       <c r="AE59" t="n">
-        <v>1416.489</v>
+        <v>2685.13</v>
       </c>
       <c r="AF59" t="n">
-        <v>1277.241</v>
+        <v>2248.287</v>
       </c>
       <c r="AG59" t="n">
-        <v>2502.589</v>
+        <v>2328.587</v>
       </c>
       <c r="AH59" t="n">
-        <v>3176.095</v>
+        <v>1345.992</v>
       </c>
       <c r="AI59" t="n">
-        <v>2550.326</v>
+        <v>-13003.293</v>
       </c>
       <c r="AJ59" t="n">
-        <v>2685.13</v>
+        <v>912.6799999999999</v>
       </c>
       <c r="AK59" t="n">
-        <v>2248.287</v>
+        <v>1082.554</v>
       </c>
       <c r="AL59" t="n">
-        <v>2328.587</v>
+        <v>401.061</v>
       </c>
       <c r="AM59" t="n">
-        <v>1345.992</v>
+        <v>-3.399</v>
       </c>
       <c r="AN59" t="n">
-        <v>-13003.293</v>
+        <v>-3525.838</v>
       </c>
       <c r="AO59" t="n">
-        <v>912.6799999999999</v>
+        <v>473.157</v>
       </c>
       <c r="AP59" t="n">
-        <v>1082.554</v>
+        <v>416.53</v>
       </c>
       <c r="AQ59" t="n">
-        <v>401.061</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>-3.399</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>-3525.838</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>473.157</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>416.53</v>
-      </c>
-      <c r="AV59" t="n">
         <v>240.379</v>
       </c>
     </row>
@@ -9259,143 +8364,128 @@
           <t>Custo de Bens e/ou Serviços Vendidos</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>-2714</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>-2705</v>
+        <v>-2596.745</v>
       </c>
       <c r="D60" t="n">
-        <v>-2751</v>
+        <v>-2287.931</v>
       </c>
       <c r="E60" t="n">
-        <v>-2833</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
+        <v>3285.184</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-2439.212</v>
+      </c>
       <c r="G60" t="n">
-        <v>-1277</v>
+        <v>-3020.498</v>
       </c>
       <c r="H60" t="n">
-        <v>-2596.745</v>
+        <v>-2535.315</v>
       </c>
       <c r="I60" t="n">
-        <v>-2287.931</v>
+        <v>-3617.598</v>
       </c>
       <c r="J60" t="n">
-        <v>3285.184</v>
+        <v>-2347.863</v>
       </c>
       <c r="K60" t="n">
-        <v>-2439.212</v>
+        <v>-2683.356</v>
       </c>
       <c r="L60" t="n">
-        <v>-3020.498</v>
+        <v>-2890.839</v>
       </c>
       <c r="M60" t="n">
-        <v>-2535.315</v>
+        <v>-3722.253</v>
       </c>
       <c r="N60" t="n">
-        <v>-3617.598</v>
+        <v>-2293.265</v>
       </c>
       <c r="O60" t="n">
-        <v>-2347.863</v>
+        <v>-3023.394</v>
       </c>
       <c r="P60" t="n">
-        <v>-2683.356</v>
+        <v>-3095.585</v>
       </c>
       <c r="Q60" t="n">
-        <v>-2890.839</v>
+        <v>-3234.489</v>
       </c>
       <c r="R60" t="n">
-        <v>-3722.253</v>
+        <v>-3063.488</v>
       </c>
       <c r="S60" t="n">
-        <v>-2293.265</v>
+        <v>-3243.955</v>
       </c>
       <c r="T60" t="n">
-        <v>-3023.394</v>
+        <v>-3748.969</v>
       </c>
       <c r="U60" t="n">
-        <v>-3095.585</v>
+        <v>-3149.737</v>
       </c>
       <c r="V60" t="n">
-        <v>-3234.489</v>
+        <v>-3276.724</v>
       </c>
       <c r="W60" t="n">
-        <v>-3063.488</v>
+        <v>-2829.962</v>
       </c>
       <c r="X60" t="n">
-        <v>-3243.955</v>
+        <v>-1720.024</v>
       </c>
       <c r="Y60" t="n">
-        <v>-3748.969</v>
+        <v>-1517.452</v>
       </c>
       <c r="Z60" t="n">
-        <v>-3149.737</v>
+        <v>-1827.784</v>
       </c>
       <c r="AA60" t="n">
-        <v>-3276.724</v>
+        <v>-1581.515</v>
       </c>
       <c r="AB60" t="n">
-        <v>-2829.962</v>
+        <v>-1549.685</v>
       </c>
       <c r="AC60" t="n">
-        <v>-1720.024</v>
+        <v>-990.236</v>
       </c>
       <c r="AD60" t="n">
-        <v>-1517.452</v>
+        <v>-2003.712</v>
       </c>
       <c r="AE60" t="n">
-        <v>-1827.784</v>
+        <v>-2098.716</v>
       </c>
       <c r="AF60" t="n">
-        <v>-1581.515</v>
+        <v>-4660.44</v>
       </c>
       <c r="AG60" t="n">
-        <v>-1549.685</v>
+        <v>891.314</v>
       </c>
       <c r="AH60" t="n">
-        <v>-990.236</v>
+        <v>-786.375</v>
       </c>
       <c r="AI60" t="n">
-        <v>-2003.712</v>
+        <v>12138.28</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-2098.716</v>
+        <v>-1757.695</v>
       </c>
       <c r="AK60" t="n">
-        <v>-4660.44</v>
+        <v>-929.241</v>
       </c>
       <c r="AL60" t="n">
-        <v>891.314</v>
+        <v>-744.397</v>
       </c>
       <c r="AM60" t="n">
-        <v>-786.375</v>
+        <v>1429.595</v>
       </c>
       <c r="AN60" t="n">
-        <v>12138.28</v>
+        <v>5291.652</v>
       </c>
       <c r="AO60" t="n">
-        <v>-1757.695</v>
+        <v>-100.889</v>
       </c>
       <c r="AP60" t="n">
-        <v>-929.241</v>
+        <v>-221.554</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-744.397</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>1429.595</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>5291.652</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-100.889</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-221.554</v>
-      </c>
-      <c r="AV60" t="n">
         <v>-56.315</v>
       </c>
     </row>
@@ -9405,143 +8495,128 @@
           <t>Resultado Bruto</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>830</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1097</v>
+        <v>1652.936</v>
       </c>
       <c r="D61" t="n">
-        <v>986</v>
+        <v>1314.676</v>
       </c>
       <c r="E61" t="n">
-        <v>366</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
+        <v>-2257.431</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1188.131</v>
+      </c>
       <c r="G61" t="n">
-        <v>1150</v>
+        <v>1269.28</v>
       </c>
       <c r="H61" t="n">
-        <v>1652.936</v>
+        <v>1362.023</v>
       </c>
       <c r="I61" t="n">
-        <v>1314.676</v>
+        <v>2039.429</v>
       </c>
       <c r="J61" t="n">
-        <v>-2257.431</v>
+        <v>1245.779</v>
       </c>
       <c r="K61" t="n">
-        <v>1188.131</v>
+        <v>1502.075</v>
       </c>
       <c r="L61" t="n">
-        <v>1269.28</v>
+        <v>1565.845</v>
       </c>
       <c r="M61" t="n">
-        <v>1362.023</v>
+        <v>1774.346</v>
       </c>
       <c r="N61" t="n">
-        <v>2039.429</v>
+        <v>1044.666</v>
       </c>
       <c r="O61" t="n">
-        <v>1245.779</v>
+        <v>912.325</v>
       </c>
       <c r="P61" t="n">
-        <v>1502.075</v>
+        <v>454.808</v>
       </c>
       <c r="Q61" t="n">
-        <v>1565.845</v>
+        <v>1029.05</v>
       </c>
       <c r="R61" t="n">
-        <v>1774.346</v>
+        <v>882.274</v>
       </c>
       <c r="S61" t="n">
-        <v>1044.666</v>
+        <v>963.144</v>
       </c>
       <c r="T61" t="n">
-        <v>912.325</v>
+        <v>1038.93</v>
       </c>
       <c r="U61" t="n">
-        <v>454.808</v>
+        <v>873.337</v>
       </c>
       <c r="V61" t="n">
-        <v>1029.05</v>
+        <v>1751.68</v>
       </c>
       <c r="W61" t="n">
-        <v>882.274</v>
+        <v>-421.062</v>
       </c>
       <c r="X61" t="n">
-        <v>963.144</v>
+        <v>-509.714</v>
       </c>
       <c r="Y61" t="n">
-        <v>1038.93</v>
+        <v>372.937</v>
       </c>
       <c r="Z61" t="n">
-        <v>873.337</v>
+        <v>-411.295</v>
       </c>
       <c r="AA61" t="n">
-        <v>1751.68</v>
+        <v>-304.274</v>
       </c>
       <c r="AB61" t="n">
-        <v>-421.062</v>
+        <v>952.904</v>
       </c>
       <c r="AC61" t="n">
-        <v>-509.714</v>
+        <v>2185.859</v>
       </c>
       <c r="AD61" t="n">
-        <v>372.937</v>
+        <v>546.614</v>
       </c>
       <c r="AE61" t="n">
-        <v>-411.295</v>
+        <v>586.414</v>
       </c>
       <c r="AF61" t="n">
-        <v>-304.274</v>
+        <v>-2412.153</v>
       </c>
       <c r="AG61" t="n">
-        <v>952.904</v>
+        <v>3219.901</v>
       </c>
       <c r="AH61" t="n">
-        <v>2185.859</v>
+        <v>559.617</v>
       </c>
       <c r="AI61" t="n">
-        <v>546.614</v>
+        <v>-865.013</v>
       </c>
       <c r="AJ61" t="n">
-        <v>586.414</v>
+        <v>-845.015</v>
       </c>
       <c r="AK61" t="n">
-        <v>-2412.153</v>
+        <v>153.313</v>
       </c>
       <c r="AL61" t="n">
-        <v>3219.901</v>
+        <v>-343.336</v>
       </c>
       <c r="AM61" t="n">
-        <v>559.617</v>
+        <v>1426.196</v>
       </c>
       <c r="AN61" t="n">
-        <v>-865.013</v>
+        <v>1765.814</v>
       </c>
       <c r="AO61" t="n">
-        <v>-845.015</v>
+        <v>372.268</v>
       </c>
       <c r="AP61" t="n">
-        <v>153.313</v>
+        <v>194.976</v>
       </c>
       <c r="AQ61" t="n">
-        <v>-343.336</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>1426.196</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>1765.814</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>372.268</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>194.976</v>
-      </c>
-      <c r="AV61" t="n">
         <v>184.064</v>
       </c>
     </row>
@@ -9551,143 +8626,128 @@
           <t>Despesas Com Vendas</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>-778</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>-580</v>
+        <v>-976.946</v>
       </c>
       <c r="D62" t="n">
-        <v>-611</v>
+        <v>-876.8099999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>-583</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+        <v>1108.97</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1051.644</v>
+      </c>
       <c r="G62" t="n">
-        <v>-188</v>
+        <v>-977.658</v>
       </c>
       <c r="H62" t="n">
-        <v>-976.946</v>
+        <v>-838.177</v>
       </c>
       <c r="I62" t="n">
-        <v>-876.8099999999999</v>
+        <v>-1156.644</v>
       </c>
       <c r="J62" t="n">
-        <v>1108.97</v>
+        <v>-850.712</v>
       </c>
       <c r="K62" t="n">
-        <v>-1051.644</v>
+        <v>-976.433</v>
       </c>
       <c r="L62" t="n">
-        <v>-977.658</v>
+        <v>-931.138</v>
       </c>
       <c r="M62" t="n">
-        <v>-838.177</v>
+        <v>-1063.014</v>
       </c>
       <c r="N62" t="n">
-        <v>-1156.644</v>
+        <v>-855.748</v>
       </c>
       <c r="O62" t="n">
-        <v>-850.712</v>
+        <v>-824.977</v>
       </c>
       <c r="P62" t="n">
-        <v>-976.433</v>
+        <v>-618.196</v>
       </c>
       <c r="Q62" t="n">
-        <v>-931.138</v>
+        <v>-706.85</v>
       </c>
       <c r="R62" t="n">
-        <v>-1063.014</v>
+        <v>-586.748</v>
       </c>
       <c r="S62" t="n">
-        <v>-855.748</v>
+        <v>-755.823</v>
       </c>
       <c r="T62" t="n">
-        <v>-824.977</v>
+        <v>-906.421</v>
       </c>
       <c r="U62" t="n">
-        <v>-618.196</v>
+        <v>-1749.892</v>
       </c>
       <c r="V62" t="n">
-        <v>-706.85</v>
+        <v>-1402.264</v>
       </c>
       <c r="W62" t="n">
-        <v>-586.748</v>
+        <v>-614.253</v>
       </c>
       <c r="X62" t="n">
-        <v>-755.823</v>
+        <v>-252.559</v>
       </c>
       <c r="Y62" t="n">
-        <v>-906.421</v>
+        <v>-1124.606</v>
       </c>
       <c r="Z62" t="n">
-        <v>-1749.892</v>
+        <v>-256.43</v>
       </c>
       <c r="AA62" t="n">
-        <v>-1402.264</v>
+        <v>-213.011</v>
       </c>
       <c r="AB62" t="n">
-        <v>-614.253</v>
+        <v>-202.671</v>
       </c>
       <c r="AC62" t="n">
-        <v>-252.559</v>
+        <v>-432.748</v>
       </c>
       <c r="AD62" t="n">
-        <v>-1124.606</v>
+        <v>-136.336</v>
       </c>
       <c r="AE62" t="n">
-        <v>-256.43</v>
+        <v>-195.66</v>
       </c>
       <c r="AF62" t="n">
-        <v>-213.011</v>
+        <v>-205.63</v>
       </c>
       <c r="AG62" t="n">
-        <v>-202.671</v>
+        <v>-576.2809999999999</v>
       </c>
       <c r="AH62" t="n">
-        <v>-432.748</v>
+        <v>-243.307</v>
       </c>
       <c r="AI62" t="n">
-        <v>-136.336</v>
+        <v>378.881</v>
       </c>
       <c r="AJ62" t="n">
-        <v>-195.66</v>
+        <v>-88.86</v>
       </c>
       <c r="AK62" t="n">
-        <v>-205.63</v>
+        <v>-9.691000000000001</v>
       </c>
       <c r="AL62" t="n">
-        <v>-576.2809999999999</v>
+        <v>-152.2</v>
       </c>
       <c r="AM62" t="n">
-        <v>-243.307</v>
+        <v>-61.675</v>
       </c>
       <c r="AN62" t="n">
-        <v>378.881</v>
+        <v>563.177</v>
       </c>
       <c r="AO62" t="n">
-        <v>-88.86</v>
+        <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>-9.691000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>-152.2</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>-61.675</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>563.177</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9697,143 +8757,128 @@
           <t>Despesas Gerais e Administrativas</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>-492</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>-423</v>
+        <v>-1846.862</v>
       </c>
       <c r="D63" t="n">
-        <v>-460</v>
+        <v>-528.676</v>
       </c>
       <c r="E63" t="n">
-        <v>-492</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>2391.102</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-436.616</v>
+      </c>
       <c r="G63" t="n">
-        <v>-535</v>
+        <v>-554.0599999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>-1846.862</v>
+        <v>-557.797</v>
       </c>
       <c r="I63" t="n">
-        <v>-528.676</v>
+        <v>-608.312</v>
       </c>
       <c r="J63" t="n">
-        <v>2391.102</v>
+        <v>-563.183</v>
       </c>
       <c r="K63" t="n">
-        <v>-436.616</v>
+        <v>-527.046</v>
       </c>
       <c r="L63" t="n">
-        <v>-554.0599999999999</v>
+        <v>-544.774</v>
       </c>
       <c r="M63" t="n">
-        <v>-557.797</v>
+        <v>-622.712</v>
       </c>
       <c r="N63" t="n">
-        <v>-608.312</v>
+        <v>-612.944</v>
       </c>
       <c r="O63" t="n">
-        <v>-563.183</v>
+        <v>-467.055</v>
       </c>
       <c r="P63" t="n">
-        <v>-527.046</v>
+        <v>-554.654</v>
       </c>
       <c r="Q63" t="n">
-        <v>-544.774</v>
+        <v>-632.668</v>
       </c>
       <c r="R63" t="n">
-        <v>-622.712</v>
+        <v>-725.21</v>
       </c>
       <c r="S63" t="n">
-        <v>-612.944</v>
+        <v>-832.436</v>
       </c>
       <c r="T63" t="n">
-        <v>-467.055</v>
+        <v>-900.659</v>
       </c>
       <c r="U63" t="n">
-        <v>-554.654</v>
+        <v>-1377.815</v>
       </c>
       <c r="V63" t="n">
-        <v>-632.668</v>
+        <v>-962.077</v>
       </c>
       <c r="W63" t="n">
-        <v>-725.21</v>
+        <v>-857.372</v>
       </c>
       <c r="X63" t="n">
-        <v>-832.436</v>
+        <v>-638.652</v>
       </c>
       <c r="Y63" t="n">
-        <v>-900.659</v>
+        <v>-580.658</v>
       </c>
       <c r="Z63" t="n">
-        <v>-1377.815</v>
+        <v>-483.463</v>
       </c>
       <c r="AA63" t="n">
-        <v>-962.077</v>
+        <v>-447.048</v>
       </c>
       <c r="AB63" t="n">
-        <v>-857.372</v>
+        <v>1957.672</v>
       </c>
       <c r="AC63" t="n">
-        <v>-638.652</v>
+        <v>-4351.98</v>
       </c>
       <c r="AD63" t="n">
-        <v>-580.658</v>
+        <v>-860.1079999999999</v>
       </c>
       <c r="AE63" t="n">
-        <v>-483.463</v>
+        <v>-1206.117</v>
       </c>
       <c r="AF63" t="n">
-        <v>-447.048</v>
+        <v>-1059.339</v>
       </c>
       <c r="AG63" t="n">
-        <v>1957.672</v>
+        <v>-1266.246</v>
       </c>
       <c r="AH63" t="n">
-        <v>-4351.98</v>
+        <v>-1073.579</v>
       </c>
       <c r="AI63" t="n">
-        <v>-860.1079999999999</v>
+        <v>2121.514</v>
       </c>
       <c r="AJ63" t="n">
-        <v>-1206.117</v>
+        <v>-750.313</v>
       </c>
       <c r="AK63" t="n">
-        <v>-1059.339</v>
+        <v>-411.096</v>
       </c>
       <c r="AL63" t="n">
-        <v>-1266.246</v>
+        <v>-491.078</v>
       </c>
       <c r="AM63" t="n">
-        <v>-1073.579</v>
+        <v>-995.78</v>
       </c>
       <c r="AN63" t="n">
-        <v>2121.514</v>
+        <v>1974.099</v>
       </c>
       <c r="AO63" t="n">
-        <v>-750.313</v>
+        <v>-415.824</v>
       </c>
       <c r="AP63" t="n">
-        <v>-411.096</v>
+        <v>-390.069</v>
       </c>
       <c r="AQ63" t="n">
-        <v>-491.078</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-995.78</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>1974.099</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-415.824</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-390.069</v>
-      </c>
-      <c r="AV63" t="n">
         <v>-319.501</v>
       </c>
     </row>
@@ -9843,9 +8888,7 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
         <v>0</v>
       </c>
@@ -9855,7 +8898,9 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
@@ -9965,21 +9010,6 @@
         <v>0</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9989,120 +9019,120 @@
           <t>Outras Receitas Operacionais</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>-68</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>102.419</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>0.233</v>
       </c>
       <c r="E65" t="n">
-        <v>47</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
+        <v>-164.971</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.18</v>
+      </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>9.920999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>102.419</v>
+        <v>1.33</v>
       </c>
       <c r="I65" t="n">
-        <v>0.233</v>
+        <v>-6.841</v>
       </c>
       <c r="J65" t="n">
-        <v>-164.971</v>
+        <v>1.784</v>
       </c>
       <c r="K65" t="n">
-        <v>3.18</v>
+        <v>30.956</v>
       </c>
       <c r="L65" t="n">
-        <v>9.920999999999999</v>
+        <v>35.382</v>
       </c>
       <c r="M65" t="n">
-        <v>1.33</v>
+        <v>-25.641</v>
       </c>
       <c r="N65" t="n">
-        <v>-6.841</v>
+        <v>1.441</v>
       </c>
       <c r="O65" t="n">
-        <v>1.784</v>
+        <v>9.291</v>
       </c>
       <c r="P65" t="n">
-        <v>30.956</v>
+        <v>9.144</v>
       </c>
       <c r="Q65" t="n">
-        <v>35.382</v>
+        <v>24.195</v>
       </c>
       <c r="R65" t="n">
-        <v>-25.641</v>
+        <v>0.222</v>
       </c>
       <c r="S65" t="n">
-        <v>1.441</v>
+        <v>3.809</v>
       </c>
       <c r="T65" t="n">
-        <v>9.291</v>
+        <v>3.283</v>
       </c>
       <c r="U65" t="n">
-        <v>9.144</v>
+        <v>5767.878</v>
       </c>
       <c r="V65" t="n">
-        <v>24.195</v>
+        <v>2.36</v>
       </c>
       <c r="W65" t="n">
-        <v>0.222</v>
+        <v>2.31</v>
       </c>
       <c r="X65" t="n">
-        <v>3.809</v>
+        <v>2.482</v>
       </c>
       <c r="Y65" t="n">
-        <v>3.283</v>
+        <v>2.468</v>
       </c>
       <c r="Z65" t="n">
-        <v>5767.878</v>
+        <v>36.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>2.36</v>
+        <v>2.529</v>
       </c>
       <c r="AB65" t="n">
-        <v>2.31</v>
+        <v>1.888</v>
       </c>
       <c r="AC65" t="n">
-        <v>2.482</v>
+        <v>0.929</v>
       </c>
       <c r="AD65" t="n">
-        <v>2.468</v>
+        <v>345.032</v>
       </c>
       <c r="AE65" t="n">
-        <v>36.5</v>
+        <v>2.928</v>
       </c>
       <c r="AF65" t="n">
-        <v>2.529</v>
+        <v>2.452</v>
       </c>
       <c r="AG65" t="n">
-        <v>1.888</v>
+        <v>4105.945</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.929</v>
+        <v>264</v>
       </c>
       <c r="AI65" t="n">
-        <v>345.032</v>
+        <v>-4786.805</v>
       </c>
       <c r="AJ65" t="n">
-        <v>2.928</v>
+        <v>0</v>
       </c>
       <c r="AK65" t="n">
-        <v>2.452</v>
+        <v>0</v>
       </c>
       <c r="AL65" t="n">
-        <v>4105.945</v>
+        <v>0</v>
       </c>
       <c r="AM65" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>-4786.805</v>
+        <v>0</v>
       </c>
       <c r="AO65" t="n">
         <v>0</v>
@@ -10111,21 +9141,6 @@
         <v>0</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10135,102 +9150,102 @@
           <t>Outras Despesas Operacionais</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>-1</v>
+        <v>34.374</v>
       </c>
       <c r="D66" t="n">
-        <v>-1</v>
+        <v>12.041</v>
       </c>
       <c r="E66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
+        <v>-4535.46</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-49.305</v>
+      </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>34.374</v>
+        <v>-22.201</v>
       </c>
       <c r="I66" t="n">
-        <v>12.041</v>
+        <v>12.106</v>
       </c>
       <c r="J66" t="n">
-        <v>-4535.46</v>
+        <v>-118.046</v>
       </c>
       <c r="K66" t="n">
-        <v>-49.305</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>-22.201</v>
+        <v>82.504</v>
       </c>
       <c r="N66" t="n">
-        <v>12.106</v>
+        <v>-199.324</v>
       </c>
       <c r="O66" t="n">
-        <v>-118.046</v>
+        <v>-27.927</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>26.55</v>
       </c>
       <c r="R66" t="n">
-        <v>82.504</v>
+        <v>-194.962</v>
       </c>
       <c r="S66" t="n">
-        <v>-199.324</v>
+        <v>8.321</v>
       </c>
       <c r="T66" t="n">
-        <v>-27.927</v>
+        <v>40.395</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>31.242</v>
       </c>
       <c r="V66" t="n">
-        <v>26.55</v>
+        <v>-103.399</v>
       </c>
       <c r="W66" t="n">
-        <v>-194.962</v>
+        <v>-6.539</v>
       </c>
       <c r="X66" t="n">
-        <v>8.321</v>
+        <v>-6.735</v>
       </c>
       <c r="Y66" t="n">
-        <v>40.395</v>
+        <v>-18534.712</v>
       </c>
       <c r="Z66" t="n">
-        <v>31.242</v>
+        <v>-45.779</v>
       </c>
       <c r="AA66" t="n">
-        <v>-103.399</v>
+        <v>-5.343</v>
       </c>
       <c r="AB66" t="n">
-        <v>-6.539</v>
+        <v>-2.299</v>
       </c>
       <c r="AC66" t="n">
-        <v>-6.735</v>
+        <v>53.421</v>
       </c>
       <c r="AD66" t="n">
-        <v>-18534.712</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>-45.779</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>-5.343</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>-2.299</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>53.421</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
         <v>0</v>
@@ -10257,21 +9272,6 @@
         <v>0</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10281,9 +9281,7 @@
           <t>Resultado da Equivalência Patrimonial</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
         <v>0</v>
       </c>
@@ -10293,7 +9291,9 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
@@ -10403,21 +9403,6 @@
         <v>0</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10427,143 +9412,128 @@
           <t>Financeiras</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>-1226</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>-1487</v>
+        <v>-961.564</v>
       </c>
       <c r="D68" t="n">
-        <v>-1721</v>
+        <v>-148.828</v>
       </c>
       <c r="E68" t="n">
-        <v>-1340</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
+        <v>-1059.993</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-243.27</v>
+      </c>
       <c r="G68" t="n">
-        <v>-1040</v>
+        <v>-260.495</v>
       </c>
       <c r="H68" t="n">
-        <v>-961.564</v>
+        <v>-279.64</v>
       </c>
       <c r="I68" t="n">
-        <v>-148.828</v>
+        <v>-314.56</v>
       </c>
       <c r="J68" t="n">
-        <v>-1059.993</v>
+        <v>-419.655</v>
       </c>
       <c r="K68" t="n">
-        <v>-243.27</v>
+        <v>-338.453</v>
       </c>
       <c r="L68" t="n">
-        <v>-260.495</v>
+        <v>-378.465</v>
       </c>
       <c r="M68" t="n">
-        <v>-279.64</v>
+        <v>-171.795</v>
       </c>
       <c r="N68" t="n">
-        <v>-314.56</v>
+        <v>-331.402</v>
       </c>
       <c r="O68" t="n">
-        <v>-419.655</v>
+        <v>-384.522</v>
       </c>
       <c r="P68" t="n">
-        <v>-338.453</v>
+        <v>-497.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>-378.465</v>
+        <v>-325.818</v>
       </c>
       <c r="R68" t="n">
-        <v>-171.795</v>
+        <v>-85.571</v>
       </c>
       <c r="S68" t="n">
-        <v>-331.402</v>
+        <v>153.921</v>
       </c>
       <c r="T68" t="n">
-        <v>-384.522</v>
+        <v>-75.923</v>
       </c>
       <c r="U68" t="n">
-        <v>-497.8</v>
+        <v>-131.714</v>
       </c>
       <c r="V68" t="n">
-        <v>-325.818</v>
+        <v>-1484.711</v>
       </c>
       <c r="W68" t="n">
-        <v>-85.571</v>
+        <v>-1430.317</v>
       </c>
       <c r="X68" t="n">
-        <v>153.921</v>
+        <v>-1116.062</v>
       </c>
       <c r="Y68" t="n">
-        <v>-75.923</v>
+        <v>-1401.022</v>
       </c>
       <c r="Z68" t="n">
-        <v>-131.714</v>
+        <v>-1072.885</v>
       </c>
       <c r="AA68" t="n">
-        <v>-1484.711</v>
+        <v>-992.352</v>
       </c>
       <c r="AB68" t="n">
-        <v>-1430.317</v>
+        <v>-1239.829</v>
       </c>
       <c r="AC68" t="n">
-        <v>-1116.062</v>
+        <v>168.284</v>
       </c>
       <c r="AD68" t="n">
-        <v>-1401.022</v>
+        <v>-1674.71</v>
       </c>
       <c r="AE68" t="n">
-        <v>-1072.885</v>
+        <v>-2089.59</v>
       </c>
       <c r="AF68" t="n">
-        <v>-992.352</v>
+        <v>-1924.395</v>
       </c>
       <c r="AG68" t="n">
-        <v>-1239.829</v>
+        <v>13.644</v>
       </c>
       <c r="AH68" t="n">
-        <v>168.284</v>
+        <v>552.494</v>
       </c>
       <c r="AI68" t="n">
-        <v>-1674.71</v>
+        <v>-769.268</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-2089.59</v>
+        <v>-122.888</v>
       </c>
       <c r="AK68" t="n">
-        <v>-1924.395</v>
+        <v>0.28</v>
       </c>
       <c r="AL68" t="n">
-        <v>13.644</v>
+        <v>-82.782</v>
       </c>
       <c r="AM68" t="n">
-        <v>552.494</v>
+        <v>-6167.07</v>
       </c>
       <c r="AN68" t="n">
-        <v>-769.268</v>
+        <v>7003.457</v>
       </c>
       <c r="AO68" t="n">
-        <v>-122.888</v>
+        <v>-36.839</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.28</v>
+        <v>-4.851</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-82.782</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>-6167.07</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>7003.457</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>-36.839</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>-4.851</v>
-      </c>
-      <c r="AV68" t="n">
         <v>-2.526</v>
       </c>
     </row>
@@ -10573,143 +9543,128 @@
           <t>Receitas Financeiras</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>23</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>707.081</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>702.051</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
+        <v>-2450.486</v>
+      </c>
+      <c r="F69" t="n">
+        <v>666.182</v>
+      </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>697.851</v>
       </c>
       <c r="H69" t="n">
-        <v>707.081</v>
+        <v>756.357</v>
       </c>
       <c r="I69" t="n">
-        <v>702.051</v>
+        <v>805.159</v>
       </c>
       <c r="J69" t="n">
-        <v>-2450.486</v>
+        <v>732.9880000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>666.182</v>
+        <v>757.037</v>
       </c>
       <c r="L69" t="n">
-        <v>697.851</v>
+        <v>779.29</v>
       </c>
       <c r="M69" t="n">
-        <v>756.357</v>
+        <v>940.211</v>
       </c>
       <c r="N69" t="n">
-        <v>805.159</v>
+        <v>950.039</v>
       </c>
       <c r="O69" t="n">
-        <v>732.9880000000001</v>
+        <v>940.2430000000001</v>
       </c>
       <c r="P69" t="n">
-        <v>757.037</v>
+        <v>901.537</v>
       </c>
       <c r="Q69" t="n">
-        <v>779.29</v>
+        <v>817.813</v>
       </c>
       <c r="R69" t="n">
-        <v>940.211</v>
+        <v>1220.77</v>
       </c>
       <c r="S69" t="n">
-        <v>950.039</v>
+        <v>1381.93</v>
       </c>
       <c r="T69" t="n">
-        <v>940.2430000000001</v>
+        <v>1227.55</v>
       </c>
       <c r="U69" t="n">
-        <v>901.537</v>
+        <v>1228.384</v>
       </c>
       <c r="V69" t="n">
-        <v>817.813</v>
+        <v>27.009</v>
       </c>
       <c r="W69" t="n">
-        <v>1220.77</v>
+        <v>18.663</v>
       </c>
       <c r="X69" t="n">
-        <v>1381.93</v>
+        <v>34.378</v>
       </c>
       <c r="Y69" t="n">
-        <v>1227.55</v>
+        <v>89.249</v>
       </c>
       <c r="Z69" t="n">
-        <v>1228.384</v>
+        <v>3.033</v>
       </c>
       <c r="AA69" t="n">
-        <v>27.009</v>
+        <v>3.73</v>
       </c>
       <c r="AB69" t="n">
-        <v>18.663</v>
+        <v>0.251</v>
       </c>
       <c r="AC69" t="n">
-        <v>34.378</v>
+        <v>10.661</v>
       </c>
       <c r="AD69" t="n">
-        <v>89.249</v>
+        <v>413.57</v>
       </c>
       <c r="AE69" t="n">
-        <v>3.033</v>
+        <v>0.779</v>
       </c>
       <c r="AF69" t="n">
-        <v>3.73</v>
+        <v>6.376</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.251</v>
+        <v>2228.893</v>
       </c>
       <c r="AH69" t="n">
-        <v>10.661</v>
+        <v>1518.138</v>
       </c>
       <c r="AI69" t="n">
-        <v>413.57</v>
+        <v>-4480.329</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0.779</v>
+        <v>5.283</v>
       </c>
       <c r="AK69" t="n">
-        <v>6.376</v>
+        <v>1.255</v>
       </c>
       <c r="AL69" t="n">
-        <v>2228.893</v>
+        <v>12.012</v>
       </c>
       <c r="AM69" t="n">
-        <v>1518.138</v>
+        <v>-6.538</v>
       </c>
       <c r="AN69" t="n">
-        <v>-4480.329</v>
+        <v>410.777</v>
       </c>
       <c r="AO69" t="n">
-        <v>5.283</v>
+        <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.255</v>
+        <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>12.012</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>-6.538</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>410.777</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10719,143 +9674,128 @@
           <t>Despesas Financeiras</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>-1249</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>-1504</v>
+        <v>-1668.645</v>
       </c>
       <c r="D70" t="n">
-        <v>-1741</v>
+        <v>-850.879</v>
       </c>
       <c r="E70" t="n">
-        <v>-1352</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
+        <v>1390.493</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-909.452</v>
+      </c>
       <c r="G70" t="n">
-        <v>-1041</v>
+        <v>-958.346</v>
       </c>
       <c r="H70" t="n">
-        <v>-1668.645</v>
+        <v>-1035.997</v>
       </c>
       <c r="I70" t="n">
-        <v>-850.879</v>
+        <v>-1119.719</v>
       </c>
       <c r="J70" t="n">
-        <v>1390.493</v>
+        <v>-1152.643</v>
       </c>
       <c r="K70" t="n">
-        <v>-909.452</v>
+        <v>-1095.49</v>
       </c>
       <c r="L70" t="n">
-        <v>-958.346</v>
+        <v>-1157.755</v>
       </c>
       <c r="M70" t="n">
-        <v>-1035.997</v>
+        <v>-1112.006</v>
       </c>
       <c r="N70" t="n">
-        <v>-1119.719</v>
+        <v>-1281.441</v>
       </c>
       <c r="O70" t="n">
-        <v>-1152.643</v>
+        <v>-1324.765</v>
       </c>
       <c r="P70" t="n">
-        <v>-1095.49</v>
+        <v>-1399.337</v>
       </c>
       <c r="Q70" t="n">
-        <v>-1157.755</v>
+        <v>-1143.631</v>
       </c>
       <c r="R70" t="n">
-        <v>-1112.006</v>
+        <v>-1306.341</v>
       </c>
       <c r="S70" t="n">
-        <v>-1281.441</v>
+        <v>-1228.009</v>
       </c>
       <c r="T70" t="n">
-        <v>-1324.765</v>
+        <v>-1303.473</v>
       </c>
       <c r="U70" t="n">
-        <v>-1399.337</v>
+        <v>-1360.098</v>
       </c>
       <c r="V70" t="n">
-        <v>-1143.631</v>
+        <v>-1511.72</v>
       </c>
       <c r="W70" t="n">
-        <v>-1306.341</v>
+        <v>-1448.98</v>
       </c>
       <c r="X70" t="n">
-        <v>-1228.009</v>
+        <v>-1150.44</v>
       </c>
       <c r="Y70" t="n">
-        <v>-1303.473</v>
+        <v>-1490.271</v>
       </c>
       <c r="Z70" t="n">
-        <v>-1360.098</v>
+        <v>-1075.918</v>
       </c>
       <c r="AA70" t="n">
-        <v>-1511.72</v>
+        <v>-996.082</v>
       </c>
       <c r="AB70" t="n">
-        <v>-1448.98</v>
+        <v>-1240.08</v>
       </c>
       <c r="AC70" t="n">
-        <v>-1150.44</v>
+        <v>157.623</v>
       </c>
       <c r="AD70" t="n">
-        <v>-1490.271</v>
+        <v>-2088.28</v>
       </c>
       <c r="AE70" t="n">
-        <v>-1075.918</v>
+        <v>-2090.369</v>
       </c>
       <c r="AF70" t="n">
-        <v>-996.082</v>
+        <v>-1930.771</v>
       </c>
       <c r="AG70" t="n">
-        <v>-1240.08</v>
+        <v>-2215.249</v>
       </c>
       <c r="AH70" t="n">
-        <v>157.623</v>
+        <v>-965.644</v>
       </c>
       <c r="AI70" t="n">
-        <v>-2088.28</v>
+        <v>3711.061</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-2090.369</v>
+        <v>-128.171</v>
       </c>
       <c r="AK70" t="n">
-        <v>-1930.771</v>
+        <v>-0.975</v>
       </c>
       <c r="AL70" t="n">
-        <v>-2215.249</v>
+        <v>-94.794</v>
       </c>
       <c r="AM70" t="n">
-        <v>-965.644</v>
+        <v>-6160.532</v>
       </c>
       <c r="AN70" t="n">
-        <v>3711.061</v>
+        <v>6592.68</v>
       </c>
       <c r="AO70" t="n">
-        <v>-128.171</v>
+        <v>-36.839</v>
       </c>
       <c r="AP70" t="n">
-        <v>-0.975</v>
+        <v>-4.851</v>
       </c>
       <c r="AQ70" t="n">
-        <v>-94.794</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>-6160.532</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>6592.68</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-36.839</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-4.851</v>
-      </c>
-      <c r="AV70" t="n">
         <v>-2.526</v>
       </c>
     </row>
@@ -10865,42 +9805,42 @@
           <t>Resultado Não Operacional</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>-45</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>3.515</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
+        <v>1.375</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I71" t="n">
-        <v>3.515</v>
+        <v>13.173</v>
       </c>
       <c r="J71" t="n">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2</v>
+        <v>4.998</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2</v>
+        <v>-0.225</v>
       </c>
       <c r="N71" t="n">
-        <v>13.173</v>
+        <v>-5.221</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -10909,31 +9849,31 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>4.998</v>
+        <v>5.221</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.225</v>
+        <v>-3.912</v>
       </c>
       <c r="S71" t="n">
-        <v>-5.221</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>5.221</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>-3.912</v>
+        <v>4.095</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>-0.001</v>
+        <v>-57.985</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
@@ -10942,13 +9882,13 @@
         <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>4.095</v>
+        <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AD71" t="n">
-        <v>-57.985</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
         <v>0</v>
@@ -10960,10 +9900,10 @@
         <v>0</v>
       </c>
       <c r="AH71" t="n">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>-8.972</v>
       </c>
       <c r="AJ71" t="n">
         <v>0</v>
@@ -10975,10 +9915,10 @@
         <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AN71" t="n">
-        <v>-8.972</v>
+        <v>0</v>
       </c>
       <c r="AO71" t="n">
         <v>0</v>
@@ -10987,21 +9927,6 @@
         <v>0</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11011,75 +9936,75 @@
           <t>Receitas</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>4</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>3.515</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
+        <v>-0.236</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>3.515</v>
+        <v>51.547</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.236</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.677</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2</v>
+        <v>18.5</v>
       </c>
       <c r="M72" t="n">
         <v>0.2</v>
       </c>
       <c r="N72" t="n">
-        <v>51.547</v>
+        <v>19.029</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0.677</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>18.5</v>
+        <v>-19.029</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2</v>
+        <v>23.088</v>
       </c>
       <c r="S72" t="n">
-        <v>19.029</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>-19.029</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>23.088</v>
+        <v>22</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
@@ -11088,13 +10013,13 @@
         <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AD72" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
         <v>0</v>
@@ -11106,10 +10031,10 @@
         <v>0</v>
       </c>
       <c r="AH72" t="n">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ72" t="n">
         <v>0</v>
@@ -11121,10 +10046,10 @@
         <v>0</v>
       </c>
       <c r="AM72" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AN72" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AO72" t="n">
         <v>0</v>
@@ -11133,21 +10058,6 @@
         <v>0</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11157,9 +10067,7 @@
           <t>Despesas</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>-49</v>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
         <v>0</v>
       </c>
@@ -11167,9 +10075,11 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
+        <v>1.611</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
@@ -11177,55 +10087,55 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>-38.374</v>
       </c>
       <c r="J73" t="n">
-        <v>1.611</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-0.677</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>-13.502</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>-0.425</v>
       </c>
       <c r="N73" t="n">
-        <v>-38.374</v>
+        <v>-24.25</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.677</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>-13.502</v>
+        <v>24.25</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.425</v>
+        <v>-27</v>
       </c>
       <c r="S73" t="n">
-        <v>-24.25</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>-1.501</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>24.25</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>-27</v>
+        <v>-17.905</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>-1.501</v>
+        <v>-77.985</v>
       </c>
       <c r="Z73" t="n">
         <v>0</v>
@@ -11234,13 +10144,13 @@
         <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>-17.905</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
         <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>-77.985</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
         <v>0</v>
@@ -11255,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>-208.972</v>
       </c>
       <c r="AJ73" t="n">
         <v>0</v>
@@ -11270,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="AN73" t="n">
-        <v>-208.972</v>
+        <v>0</v>
       </c>
       <c r="AO73" t="n">
         <v>0</v>
@@ -11279,21 +10189,6 @@
         <v>0</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11303,143 +10198,128 @@
           <t>Resultado Antes Tributação/Participações</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>-1779</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>-1365</v>
+        <v>-1995.643</v>
       </c>
       <c r="D74" t="n">
-        <v>-1802</v>
+        <v>-223.849</v>
       </c>
       <c r="E74" t="n">
-        <v>-2003</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
+        <v>-4516.408</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-589.524</v>
+      </c>
       <c r="G74" t="n">
-        <v>-607</v>
+        <v>-512.812</v>
       </c>
       <c r="H74" t="n">
-        <v>-1995.643</v>
+        <v>-334.262</v>
       </c>
       <c r="I74" t="n">
-        <v>-223.849</v>
+        <v>-21.649</v>
       </c>
       <c r="J74" t="n">
-        <v>-4516.408</v>
+        <v>-704.033</v>
       </c>
       <c r="K74" t="n">
-        <v>-589.524</v>
+        <v>-308.901</v>
       </c>
       <c r="L74" t="n">
-        <v>-512.812</v>
+        <v>-248.152</v>
       </c>
       <c r="M74" t="n">
-        <v>-334.262</v>
+        <v>-26.537</v>
       </c>
       <c r="N74" t="n">
-        <v>-21.649</v>
+        <v>-958.532</v>
       </c>
       <c r="O74" t="n">
-        <v>-704.033</v>
+        <v>-782.865</v>
       </c>
       <c r="P74" t="n">
-        <v>-308.901</v>
+        <v>-1206.698</v>
       </c>
       <c r="Q74" t="n">
-        <v>-248.152</v>
+        <v>-580.3200000000001</v>
       </c>
       <c r="R74" t="n">
-        <v>-26.537</v>
+        <v>-713.907</v>
       </c>
       <c r="S74" t="n">
-        <v>-958.532</v>
+        <v>-459.064</v>
       </c>
       <c r="T74" t="n">
-        <v>-782.865</v>
+        <v>-800.396</v>
       </c>
       <c r="U74" t="n">
-        <v>-1206.698</v>
+        <v>3413.036</v>
       </c>
       <c r="V74" t="n">
-        <v>-580.3200000000001</v>
+        <v>-2198.411</v>
       </c>
       <c r="W74" t="n">
-        <v>-713.907</v>
+        <v>-3323.138</v>
       </c>
       <c r="X74" t="n">
-        <v>-459.064</v>
+        <v>-2521.24</v>
       </c>
       <c r="Y74" t="n">
-        <v>-800.396</v>
+        <v>-21323.576</v>
       </c>
       <c r="Z74" t="n">
-        <v>3413.036</v>
+        <v>-2233.352</v>
       </c>
       <c r="AA74" t="n">
-        <v>-2198.411</v>
+        <v>-1959.499</v>
       </c>
       <c r="AB74" t="n">
-        <v>-3323.138</v>
+        <v>1467.665</v>
       </c>
       <c r="AC74" t="n">
-        <v>-2521.24</v>
+        <v>-2096.235</v>
       </c>
       <c r="AD74" t="n">
-        <v>-21323.576</v>
+        <v>-1779.508</v>
       </c>
       <c r="AE74" t="n">
-        <v>-2233.352</v>
+        <v>-2902.025</v>
       </c>
       <c r="AF74" t="n">
-        <v>-1959.499</v>
+        <v>-5599.065</v>
       </c>
       <c r="AG74" t="n">
-        <v>1467.665</v>
+        <v>5496.963</v>
       </c>
       <c r="AH74" t="n">
-        <v>-2096.235</v>
+        <v>85.22499999999999</v>
       </c>
       <c r="AI74" t="n">
-        <v>-1779.508</v>
+        <v>-3929.664</v>
       </c>
       <c r="AJ74" t="n">
-        <v>-2902.025</v>
+        <v>-1807.076</v>
       </c>
       <c r="AK74" t="n">
-        <v>-5599.065</v>
+        <v>-267.194</v>
       </c>
       <c r="AL74" t="n">
-        <v>5496.963</v>
+        <v>-1069.396</v>
       </c>
       <c r="AM74" t="n">
-        <v>85.22499999999999</v>
+        <v>-5798.329</v>
       </c>
       <c r="AN74" t="n">
-        <v>-3929.664</v>
+        <v>11306.547</v>
       </c>
       <c r="AO74" t="n">
-        <v>-1807.076</v>
+        <v>-80.395</v>
       </c>
       <c r="AP74" t="n">
-        <v>-267.194</v>
+        <v>-199.944</v>
       </c>
       <c r="AQ74" t="n">
-        <v>-1069.396</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>-5798.329</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>11306.547</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>-80.395</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>-199.944</v>
-      </c>
-      <c r="AV74" t="n">
         <v>-137.963</v>
       </c>
     </row>
@@ -11449,9 +10329,7 @@
           <t>Provisão para IR e Contribuição Social</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
         <v>0</v>
       </c>
@@ -11459,9 +10337,11 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
+        <v>154.329</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
@@ -11472,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>154.329</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -11505,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>-344.068</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -11520,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>-344.068</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
         <v>0</v>
@@ -11544,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>-17.926</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>17.926</v>
       </c>
       <c r="AJ75" t="n">
         <v>0</v>
@@ -11559,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="AM75" t="n">
-        <v>-17.926</v>
+        <v>0</v>
       </c>
       <c r="AN75" t="n">
-        <v>17.926</v>
+        <v>0</v>
       </c>
       <c r="AO75" t="n">
         <v>0</v>
@@ -11571,21 +10451,6 @@
         <v>0</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11595,9 +10460,7 @@
           <t>IR Diferido</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>0</v>
       </c>
@@ -11607,7 +10470,9 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
@@ -11717,21 +10582,6 @@
         <v>0</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11741,9 +10591,7 @@
           <t>Participações/Contribuições Estatutárias</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
         <v>0</v>
       </c>
@@ -11753,7 +10601,9 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
@@ -11863,21 +10713,6 @@
         <v>0</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11887,9 +10722,7 @@
           <t>Reversão dos Juros sobre Capital Próprio</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
         <v>0</v>
       </c>
@@ -11899,7 +10732,9 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
@@ -12009,21 +10844,6 @@
         <v>0</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12033,9 +10853,7 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>0</v>
       </c>
@@ -12045,7 +10863,9 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
@@ -12155,21 +10975,6 @@
         <v>0</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12179,143 +10984,128 @@
           <t>Lucro/Prejuízo do Período</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>-1779</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>-1365</v>
+        <v>-1995.643</v>
       </c>
       <c r="D80" t="n">
-        <v>-1802</v>
+        <v>-223.849</v>
       </c>
       <c r="E80" t="n">
-        <v>-2003</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
+        <v>-4362.079</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-589.524</v>
+      </c>
       <c r="G80" t="n">
-        <v>-607</v>
+        <v>-512.812</v>
       </c>
       <c r="H80" t="n">
-        <v>-1995.643</v>
+        <v>-334.262</v>
       </c>
       <c r="I80" t="n">
-        <v>-223.849</v>
+        <v>-21.649</v>
       </c>
       <c r="J80" t="n">
-        <v>-4362.079</v>
+        <v>-704.033</v>
       </c>
       <c r="K80" t="n">
-        <v>-589.524</v>
+        <v>-308.901</v>
       </c>
       <c r="L80" t="n">
-        <v>-512.812</v>
+        <v>-248.152</v>
       </c>
       <c r="M80" t="n">
-        <v>-334.262</v>
+        <v>-26.537</v>
       </c>
       <c r="N80" t="n">
-        <v>-21.649</v>
+        <v>-958.532</v>
       </c>
       <c r="O80" t="n">
-        <v>-704.033</v>
+        <v>-782.865</v>
       </c>
       <c r="P80" t="n">
-        <v>-308.901</v>
+        <v>-1206.698</v>
       </c>
       <c r="Q80" t="n">
-        <v>-248.152</v>
+        <v>-580.3200000000001</v>
       </c>
       <c r="R80" t="n">
-        <v>-26.537</v>
+        <v>-713.907</v>
       </c>
       <c r="S80" t="n">
-        <v>-958.532</v>
+        <v>-459.064</v>
       </c>
       <c r="T80" t="n">
-        <v>-782.865</v>
+        <v>-800.396</v>
       </c>
       <c r="U80" t="n">
-        <v>-1206.698</v>
+        <v>3068.968</v>
       </c>
       <c r="V80" t="n">
-        <v>-580.3200000000001</v>
+        <v>-2198.411</v>
       </c>
       <c r="W80" t="n">
-        <v>-713.907</v>
+        <v>-3323.138</v>
       </c>
       <c r="X80" t="n">
-        <v>-459.064</v>
+        <v>-2521.24</v>
       </c>
       <c r="Y80" t="n">
-        <v>-800.396</v>
+        <v>-21323.576</v>
       </c>
       <c r="Z80" t="n">
-        <v>3068.968</v>
+        <v>-2233.352</v>
       </c>
       <c r="AA80" t="n">
-        <v>-2198.411</v>
+        <v>-1959.499</v>
       </c>
       <c r="AB80" t="n">
-        <v>-3323.138</v>
+        <v>1467.665</v>
       </c>
       <c r="AC80" t="n">
-        <v>-2521.24</v>
+        <v>-2096.235</v>
       </c>
       <c r="AD80" t="n">
-        <v>-21323.576</v>
+        <v>-1779.508</v>
       </c>
       <c r="AE80" t="n">
-        <v>-2233.352</v>
+        <v>-2902.025</v>
       </c>
       <c r="AF80" t="n">
-        <v>-1959.499</v>
+        <v>-5599.065</v>
       </c>
       <c r="AG80" t="n">
-        <v>1467.665</v>
+        <v>5496.963</v>
       </c>
       <c r="AH80" t="n">
-        <v>-2096.235</v>
+        <v>67.29900000000001</v>
       </c>
       <c r="AI80" t="n">
-        <v>-1779.508</v>
+        <v>-3911.738</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-2902.025</v>
+        <v>-1807.076</v>
       </c>
       <c r="AK80" t="n">
-        <v>-5599.065</v>
+        <v>-267.194</v>
       </c>
       <c r="AL80" t="n">
-        <v>5496.963</v>
+        <v>-1069.396</v>
       </c>
       <c r="AM80" t="n">
-        <v>67.29900000000001</v>
+        <v>-5798.329</v>
       </c>
       <c r="AN80" t="n">
-        <v>-3911.738</v>
+        <v>11306.547</v>
       </c>
       <c r="AO80" t="n">
-        <v>-1807.076</v>
+        <v>-80.395</v>
       </c>
       <c r="AP80" t="n">
-        <v>-267.194</v>
+        <v>-199.944</v>
       </c>
       <c r="AQ80" t="n">
-        <v>-1069.396</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>-5798.329</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>11306.547</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>-80.395</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>-199.944</v>
-      </c>
-      <c r="AV80" t="n">
         <v>-137.963</v>
       </c>
     </row>
